--- a/localization_cn.xlsx
+++ b/localization_cn.xlsx
@@ -30,18 +30,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SKILL_NAME_6</t>
-  </si>
-  <si>
-    <t>SKILL_DESC_6</t>
-  </si>
-  <si>
-    <t>SKILL_NAME_7</t>
-  </si>
-  <si>
-    <t>SKILL_DESC_7</t>
-  </si>
-  <si>
     <t>SKILL_NAME_8</t>
   </si>
   <si>
@@ -184,10 +172,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>分享己方女性角色受到的部分治疗效果。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>脑子里都是肌肉，提升自身力量。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -212,10 +196,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>妖娆性感，有几率不分种族秒杀体力不满的男性角色。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>超强感知，提高闪避几率。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -224,10 +204,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>善解人意，提高暴击率。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>带头大哥</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -344,10 +320,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>言语犀利，攻击时有几率把敌人打击到沉默。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>SKILL_NAME_1200</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -361,6 +333,38 @@
   </si>
   <si>
     <t>SKILL_DESC_1001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>妖娆性感，有几率秒杀体力不满的角色。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分享己方角色受到的部分治疗效果。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKILL_NAME_1401</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKILL_DESC_1401</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKILL_NAME_1601</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKILL_DESC_1601</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>言语犀利，攻击时有几率把敌人打击到沉默,不能释放热血技能。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>善解人意，攻击会产生暴击。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -708,7 +712,7 @@
   <dimension ref="A1:B47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -726,7 +730,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
@@ -734,362 +738,362 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="B4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="B5" t="s">
-        <v>56</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="B7" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="B8" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="B9" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="B11" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>3</v>
+        <v>64</v>
       </c>
       <c r="B12" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>4</v>
+        <v>65</v>
       </c>
       <c r="B13" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="B14" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>6</v>
+        <v>91</v>
       </c>
       <c r="B15" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B16" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B17" t="s">
-        <v>59</v>
+        <v>93</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B18" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B19" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B20" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B21" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B22" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B23" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B24" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B25" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B26" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B27" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B28" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B29" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B30" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B31" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B32" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B33" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B34" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B35" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B36" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B37" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B38" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B39" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B40" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B41" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="B42" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="B43" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B44" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B45" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="B46" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="B47" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>

--- a/localization_cn.xlsx
+++ b/localization_cn.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="118">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -30,54 +30,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SKILL_NAME_8</t>
-  </si>
-  <si>
-    <t>SKILL_DESC_8</t>
-  </si>
-  <si>
-    <t>SKILL_NAME_9</t>
-  </si>
-  <si>
-    <t>SKILL_DESC_9</t>
-  </si>
-  <si>
-    <t>SKILL_NAME_10</t>
-  </si>
-  <si>
-    <t>SKILL_DESC_10</t>
-  </si>
-  <si>
-    <t>SKILL_NAME_11</t>
-  </si>
-  <si>
-    <t>SKILL_DESC_11</t>
-  </si>
-  <si>
-    <t>SKILL_NAME_12</t>
-  </si>
-  <si>
-    <t>SKILL_DESC_12</t>
-  </si>
-  <si>
-    <t>SKILL_NAME_13</t>
-  </si>
-  <si>
-    <t>SKILL_DESC_13</t>
-  </si>
-  <si>
-    <t>SKILL_NAME_14</t>
-  </si>
-  <si>
-    <t>SKILL_DESC_14</t>
-  </si>
-  <si>
-    <t>SKILL_NAME_15</t>
-  </si>
-  <si>
-    <t>SKILL_DESC_15</t>
-  </si>
-  <si>
     <t>SKILL_NAME_16</t>
   </si>
   <si>
@@ -136,235 +88,395 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>超常第六感</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿呆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>嗜睡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>四肢发达</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>渊博</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>屌丝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高富帅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>白富美</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学识丰富，提升自身智力。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>胖子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>身宽体胖，提升自身体质。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无数女性的梦中情人，提升自身魅力。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>偶尔得到神的眷顾，技能有几率不消耗能量。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>带头大哥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>队友被攻击时，有一定几率替队友承受攻击。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>臭脚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对敌人造成伤害时有几率给予目标臭气弥漫状态。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>走在马路上都会被人介绍对象，同组男性角色所有属性提升。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>呆呆的，也许有特别的用处。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不吃亏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被攻击后有可能反击。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKILL_NAME_1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKILL_DESC_1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>长相奇葩，被击中的敌人下回合有可能因为害怕而不能行动。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKILL_NAME_1600</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKILL_DESC_1600</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BUFFER_NAME_2000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恐惧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BUFFER_DESC_2000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被吓破了胆，不敢做出行动。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有爱人士，进行治疗时会触发基于魅力的群体治疗效果。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKILL_NAME_2000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKILL_DESC_2000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通攻击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKILL_NAME_2400</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通治疗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKILL_DESC_2400</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对一名友方目标进行基于魅力值的治疗。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对一名敌人造成基于力量值的普通攻击。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKILL_NAME_1400</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKILL_DESC_1400</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>长的太可爱，让人不忍下重手，只能发挥出一半攻击力。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKILL_NAME_1200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKILL_DESC_1200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKILL_NAME_1001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKILL_DESC_1001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>妖娆性感，有几率秒杀体力不满的角色。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分享己方角色受到的部分治疗效果。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKILL_NAME_1401</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKILL_DESC_1401</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKILL_NAME_1601</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKILL_DESC_1601</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>言语犀利，攻击时有几率把敌人打击到沉默,不能释放热血技能。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKILL_NAME_1002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKILL_DESC_1002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>善解人意，技能有几率产生暴击。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>超强感知，有可能闪避攻击不受伤害。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKILL_NAME_1201</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKILL_DESC_1201</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BUFFER_NAME_1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BUFFER_DESC_1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暴击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对敌人造成伤害时有几率暴击。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BUFFER_NAME_2001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BUFFER_DESC_2001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>意志消沉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不能释放热血技能。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BUFFER_NAME_5000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BUFFER_DESC_5000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可爱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>敌人对你只造成一半的普通攻击伤害。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BUFFER_NAME_5001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BUFFER_DESC_5001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第六感</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有几率闪避敌人造成的伤害。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKILL_NAME_1202</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKILL_DESC_1202</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKILL_NAME_1203</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKILL_DESC_1203</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BUFFER_NAME_1001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BUFFER_DESC_1001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发呆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>看起来呆头呆脑，难道是扮猪吃老虎？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKILL_NAME_1602</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKILL_DESC_1602</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKILL_NAME_1603</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKILL_DESC_1603</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BUFFER_NAME_1002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BUFFER_DESC_1002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>昏昏欲睡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>睡不醒，减少睡眠技能所需能量。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>睡眠技能所需能量减少。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>脑子里都是肌肉，提升自身力量。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>大叔</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>超常第六感</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>阿呆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>嗜睡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>四肢发达</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>渊博</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>屌丝</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高富帅</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>白富美</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>脑子里都是肌肉，提升自身力量。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>学识丰富，提升自身智力。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>胖子</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>身宽体胖，提升自身体质。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无数女性的梦中情人，提升自身魅力。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>偶尔得到神的眷顾，技能有几率不消耗能量。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>超强感知，提高闪避几率。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>睡不醒，提高睡眠状态生效几率。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>带头大哥</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>队友被攻击时，有一定几率替队友承受攻击。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>臭脚</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>对敌人造成伤害时有几率给予目标臭气弥漫状态。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>走在马路上都会被人介绍对象，同组男性角色所有属性提升。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>呆呆的，也许有特别的用处。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不吃亏</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>被攻击后有可能反击。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SKILL_NAME_1000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SKILL_DESC_1000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>长相奇葩，被击中的敌人下回合有可能因为害怕而不能行动。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SKILL_NAME_1600</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SKILL_DESC_1600</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BUFFER_NAME_2000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>恐惧</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BUFFER_DESC_2000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>被吓破了胆，不敢做出行动。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>有爱人士，进行治疗时会触发基于魅力的群体治疗效果。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SKILL_NAME_2000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SKILL_DESC_2000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>普通攻击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SKILL_NAME_2400</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>普通治疗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SKILL_DESC_2400</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>对一名友方目标进行基于魅力值的治疗。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>对一名敌人造成基于力量值的普通攻击。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SKILL_NAME_1400</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SKILL_DESC_1400</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>长的太可爱，让人不忍下重手，只能发挥出一半攻击力。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SKILL_NAME_1200</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SKILL_DESC_1200</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SKILL_NAME_1001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SKILL_DESC_1001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>妖娆性感，有几率秒杀体力不满的角色。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>分享己方角色受到的部分治疗效果。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SKILL_NAME_1401</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SKILL_DESC_1401</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SKILL_NAME_1601</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SKILL_DESC_1601</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>言语犀利，攻击时有几率把敌人打击到沉默,不能释放热血技能。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>善解人意，攻击会产生暴击。</t>
+    <t>SKILL_NAME_1604</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKILL_DESC_1604</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKILL_NAME_1605</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKILL_DESC_1605</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -709,10 +821,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B47"/>
+  <dimension ref="A1:B59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -730,7 +842,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
@@ -738,362 +850,458 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="B5" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>113</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="B7" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="B9" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="B11" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>64</v>
+        <v>95</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>65</v>
+        <v>96</v>
       </c>
       <c r="B13" t="s">
-        <v>63</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="B14" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="B15" t="s">
-        <v>92</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>3</v>
+        <v>59</v>
       </c>
       <c r="B16" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>4</v>
+        <v>60</v>
       </c>
       <c r="B17" t="s">
-        <v>93</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>5</v>
+        <v>68</v>
       </c>
       <c r="B18" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>6</v>
+        <v>69</v>
       </c>
       <c r="B19" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>7</v>
+        <v>44</v>
       </c>
       <c r="B20" t="s">
-        <v>53</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="B21" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>9</v>
+        <v>70</v>
       </c>
       <c r="B22" t="s">
-        <v>59</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>10</v>
+        <v>71</v>
       </c>
       <c r="B23" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>11</v>
+        <v>103</v>
       </c>
       <c r="B24" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>12</v>
+        <v>104</v>
       </c>
       <c r="B25" t="s">
-        <v>58</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>13</v>
+        <v>105</v>
       </c>
       <c r="B26" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>14</v>
+        <v>106</v>
       </c>
       <c r="B27" t="s">
-        <v>52</v>
+        <v>110</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>15</v>
+        <v>114</v>
       </c>
       <c r="B28" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>16</v>
+        <v>115</v>
       </c>
       <c r="B29" t="s">
-        <v>45</v>
+        <v>112</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>17</v>
+        <v>116</v>
       </c>
       <c r="B30" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>18</v>
+        <v>117</v>
       </c>
       <c r="B31" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="B32" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="B33" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="B34" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="B35" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="B36" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="B37" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="B38" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="B39" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="B40" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="B41" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="B42" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="B43" t="s">
-        <v>78</v>
+        <v>58</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="B44" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="B45" t="s">
-        <v>77</v>
+        <v>57</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="B46" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="B47" t="s">
-        <v>69</v>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" t="s">
+        <v>99</v>
+      </c>
+      <c r="B48" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" t="s">
+        <v>100</v>
+      </c>
+      <c r="B49" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" t="s">
+        <v>107</v>
+      </c>
+      <c r="B50" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" t="s">
+        <v>108</v>
+      </c>
+      <c r="B51" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" t="s">
+        <v>46</v>
+      </c>
+      <c r="B52" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" t="s">
+        <v>48</v>
+      </c>
+      <c r="B53" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" t="s">
+        <v>83</v>
+      </c>
+      <c r="B54" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" t="s">
+        <v>84</v>
+      </c>
+      <c r="B55" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" t="s">
+        <v>87</v>
+      </c>
+      <c r="B56" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" t="s">
+        <v>88</v>
+      </c>
+      <c r="B57" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" t="s">
+        <v>91</v>
+      </c>
+      <c r="B58" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" t="s">
+        <v>92</v>
+      </c>
+      <c r="B59" t="s">
+        <v>94</v>
       </c>
     </row>
   </sheetData>

--- a/localization_cn.xlsx
+++ b/localization_cn.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="164">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -477,6 +477,184 @@
   </si>
   <si>
     <t>SKILL_DESC_1605</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SOUL_NAME_1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>狗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SOUL_DESC_1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SOUL_DESC_1001</t>
+  </si>
+  <si>
+    <t>SOUL_NAME_1002</t>
+  </si>
+  <si>
+    <t>SOUL_DESC_1002</t>
+  </si>
+  <si>
+    <t>SOUL_NAME_1001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>猫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>熊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SOUL_NAME_2001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拳师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SOUL_DESC_2001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SOUL_NAME_2002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>武士</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SOUL_DESC_2002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SOUL_NAME_2003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SOUL_DESC_2003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SOUL_NAME_3000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兽人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SOUL_DESC_3000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SOUL_NAME_3001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>牛头人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SOUL_DESC_3001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SOUL_DESC_3002</t>
+  </si>
+  <si>
+    <t>SOUL_NAME_3002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兔头萨满</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SOUL_NAME_4000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>精灵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SOUL_DESC_4000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SOUL_NAME_4001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>古树</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SOUL_DESC_4001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SOUL_NAME_4002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑精灵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SOUL_DESC_4002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SOUL_NAME_5000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>骷髅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SOUL_DESC_5000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SOUL_NAME_5001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>僵尸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SOUL_DESC_5001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>僵尸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SOUL_NAME_5002</t>
+  </si>
+  <si>
+    <t>SOUL_DESC_5002</t>
+  </si>
+  <si>
+    <t>鬼魂</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -821,10 +999,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B59"/>
+  <dimension ref="A1:B92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView tabSelected="1" topLeftCell="A87" workbookViewId="0">
+      <selection activeCell="D88" sqref="D88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1302,6 +1480,246 @@
       </c>
       <c r="B59" t="s">
         <v>94</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" t="s">
+        <v>118</v>
+      </c>
+      <c r="B63" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" t="s">
+        <v>120</v>
+      </c>
+      <c r="B64" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" t="s">
+        <v>124</v>
+      </c>
+      <c r="B65" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" t="s">
+        <v>121</v>
+      </c>
+      <c r="B66" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" t="s">
+        <v>122</v>
+      </c>
+      <c r="B67" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" t="s">
+        <v>123</v>
+      </c>
+      <c r="B68" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" t="s">
+        <v>127</v>
+      </c>
+      <c r="B69" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" t="s">
+        <v>129</v>
+      </c>
+      <c r="B70" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" t="s">
+        <v>130</v>
+      </c>
+      <c r="B71" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" t="s">
+        <v>132</v>
+      </c>
+      <c r="B72" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" t="s">
+        <v>133</v>
+      </c>
+      <c r="B73" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" t="s">
+        <v>135</v>
+      </c>
+      <c r="B74" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" t="s">
+        <v>136</v>
+      </c>
+      <c r="B75" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" t="s">
+        <v>138</v>
+      </c>
+      <c r="B76" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" t="s">
+        <v>139</v>
+      </c>
+      <c r="B77" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" t="s">
+        <v>141</v>
+      </c>
+      <c r="B78" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" t="s">
+        <v>143</v>
+      </c>
+      <c r="B79" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" t="s">
+        <v>142</v>
+      </c>
+      <c r="B80" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" t="s">
+        <v>145</v>
+      </c>
+      <c r="B81" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" t="s">
+        <v>147</v>
+      </c>
+      <c r="B82" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" t="s">
+        <v>148</v>
+      </c>
+      <c r="B83" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" t="s">
+        <v>150</v>
+      </c>
+      <c r="B84" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85" t="s">
+        <v>151</v>
+      </c>
+      <c r="B85" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86" t="s">
+        <v>153</v>
+      </c>
+      <c r="B86" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87" t="s">
+        <v>154</v>
+      </c>
+      <c r="B87" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88" t="s">
+        <v>156</v>
+      </c>
+      <c r="B88" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89" t="s">
+        <v>157</v>
+      </c>
+      <c r="B89" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90" t="s">
+        <v>159</v>
+      </c>
+      <c r="B90" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91" t="s">
+        <v>161</v>
+      </c>
+      <c r="B91" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92" t="s">
+        <v>162</v>
+      </c>
+      <c r="B92" t="s">
+        <v>163</v>
       </c>
     </row>
   </sheetData>

--- a/localization_cn.xlsx
+++ b/localization_cn.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="192">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -100,10 +100,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>四肢发达</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>渊博</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -196,18 +192,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>恐惧</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>BUFFER_DESC_2000</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>被吓破了胆，不敢做出行动。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>有爱人士，进行治疗时会触发基于魅力的群体治疗效果。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -456,22 +444,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>脑子里都是肌肉，提升自身力量。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>大叔</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SKILL_NAME_1604</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SKILL_DESC_1604</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>SKILL_NAME_1605</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -655,6 +631,142 @@
   </si>
   <si>
     <t>鬼魂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>疯狂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击力提高100%，持续3回合。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BUFFER_NAME_1003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BUFFER_DESC_1003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>疯狂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKILL_NAME_6000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKILL_DESC_6000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BUFFER_NAME_4000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BUFFER_DESC_4000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>流血</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKILL_NAME_3001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKILL_DESC_3001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乱抓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>爪击对方，并造成持续流血效果。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKILL_NAME_4000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKILL_DESC_4000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冬眠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恢复50%最大血量。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKILL_NAME_3002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKILL_DESC_3002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>铁拳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发动两次攻击，每次造成150%攻击力的伤害。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKILL_NAME_3000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKILL_DESC_3000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>十字斩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成400%攻击力的伤害。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKILL_NAME_3003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKILL_DESC_3003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>背书</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成伤害并使对方眩晕1回合。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>眩晕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晕头转向。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击力提高。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每回合造成攻击者攻击力相关的伤害。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -999,10 +1111,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B92"/>
+  <dimension ref="A1:B103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A87" workbookViewId="0">
-      <selection activeCell="D88" sqref="D88"/>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="D72" sqref="D72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1020,7 +1132,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
@@ -1028,7 +1140,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
@@ -1036,7 +1148,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B4" t="s">
         <v>10</v>
@@ -1044,31 +1156,31 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B5" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B6" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B7" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B8" t="s">
         <v>9</v>
@@ -1076,15 +1188,15 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B9" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B10" t="s">
         <v>20</v>
@@ -1092,47 +1204,47 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B11" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B16" t="s">
         <v>8</v>
@@ -1140,15 +1252,15 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B17" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B18" t="s">
         <v>11</v>
@@ -1156,15 +1268,15 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B19" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B20" t="s">
         <v>6</v>
@@ -1172,15 +1284,15 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B21" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B22" t="s">
         <v>19</v>
@@ -1188,15 +1300,15 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B23" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B24" t="s">
         <v>21</v>
@@ -1204,15 +1316,15 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B25" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B26" t="s">
         <v>22</v>
@@ -1220,15 +1332,15 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B27" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B28" t="s">
         <v>23</v>
@@ -1236,15 +1348,15 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B29" t="s">
-        <v>112</v>
+        <v>27</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>116</v>
+        <v>3</v>
       </c>
       <c r="B30" t="s">
         <v>24</v>
@@ -1252,15 +1364,15 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>117</v>
+        <v>4</v>
       </c>
       <c r="B31" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B32" t="s">
         <v>25</v>
@@ -1268,15 +1380,15 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="B33" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B34" t="s">
         <v>26</v>
@@ -1284,58 +1396,58 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B35" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B36" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B37" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B38" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B39" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="B40" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="B41" t="s">
-        <v>30</v>
+        <v>55</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -1343,383 +1455,495 @@
         <v>51</v>
       </c>
       <c r="B42" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B43" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>54</v>
+        <v>180</v>
       </c>
       <c r="B44" t="s">
-        <v>55</v>
+        <v>182</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>56</v>
+        <v>181</v>
       </c>
       <c r="B45" t="s">
-        <v>57</v>
+        <v>183</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>79</v>
+        <v>168</v>
       </c>
       <c r="B46" t="s">
-        <v>81</v>
+        <v>170</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>80</v>
+        <v>169</v>
       </c>
       <c r="B47" t="s">
-        <v>82</v>
+        <v>171</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" t="s">
-        <v>99</v>
+        <v>176</v>
       </c>
       <c r="B48" t="s">
-        <v>101</v>
+        <v>178</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>100</v>
+        <v>177</v>
       </c>
       <c r="B49" t="s">
-        <v>102</v>
+        <v>179</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>107</v>
+        <v>184</v>
       </c>
       <c r="B50" t="s">
-        <v>109</v>
+        <v>186</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>108</v>
+        <v>185</v>
       </c>
       <c r="B51" t="s">
-        <v>111</v>
+        <v>187</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>46</v>
+        <v>172</v>
       </c>
       <c r="B52" t="s">
-        <v>47</v>
+        <v>174</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>48</v>
+        <v>173</v>
       </c>
       <c r="B53" t="s">
-        <v>49</v>
+        <v>175</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="s">
-        <v>83</v>
+        <v>163</v>
       </c>
       <c r="B54" t="s">
-        <v>85</v>
+        <v>158</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" t="s">
-        <v>84</v>
+        <v>164</v>
       </c>
       <c r="B55" t="s">
-        <v>86</v>
+        <v>159</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="B56" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="B57" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B58" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B59" t="s">
-        <v>94</v>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" t="s">
+        <v>104</v>
+      </c>
+      <c r="B60" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" t="s">
+        <v>105</v>
+      </c>
+      <c r="B61" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" t="s">
+        <v>160</v>
+      </c>
+      <c r="B62" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" t="s">
-        <v>118</v>
+        <v>161</v>
       </c>
       <c r="B63" t="s">
-        <v>119</v>
+        <v>190</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" t="s">
-        <v>120</v>
+        <v>45</v>
       </c>
       <c r="B64" t="s">
-        <v>119</v>
+        <v>188</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" t="s">
-        <v>124</v>
+        <v>46</v>
       </c>
       <c r="B65" t="s">
-        <v>125</v>
+        <v>189</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" t="s">
-        <v>121</v>
+        <v>80</v>
       </c>
       <c r="B66" t="s">
-        <v>125</v>
+        <v>82</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" t="s">
-        <v>122</v>
+        <v>81</v>
       </c>
       <c r="B67" t="s">
-        <v>126</v>
+        <v>83</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" t="s">
-        <v>123</v>
+        <v>165</v>
       </c>
       <c r="B68" t="s">
-        <v>126</v>
+        <v>167</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" t="s">
-        <v>127</v>
+        <v>166</v>
       </c>
       <c r="B69" t="s">
-        <v>128</v>
+        <v>191</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" t="s">
-        <v>129</v>
+        <v>84</v>
       </c>
       <c r="B70" t="s">
-        <v>128</v>
+        <v>86</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" t="s">
-        <v>130</v>
+        <v>85</v>
       </c>
       <c r="B71" t="s">
-        <v>131</v>
+        <v>87</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" t="s">
-        <v>132</v>
+        <v>88</v>
       </c>
       <c r="B72" t="s">
-        <v>131</v>
+        <v>90</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" t="s">
-        <v>133</v>
+        <v>89</v>
       </c>
       <c r="B73" t="s">
-        <v>134</v>
+        <v>91</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" t="s">
-        <v>135</v>
+        <v>112</v>
       </c>
       <c r="B74" t="s">
-        <v>134</v>
+        <v>113</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" t="s">
-        <v>136</v>
+        <v>114</v>
       </c>
       <c r="B75" t="s">
-        <v>137</v>
+        <v>113</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
       <c r="B76" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" t="s">
-        <v>139</v>
+        <v>115</v>
       </c>
       <c r="B77" t="s">
-        <v>140</v>
+        <v>119</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" t="s">
-        <v>141</v>
+        <v>116</v>
       </c>
       <c r="B78" t="s">
-        <v>140</v>
+        <v>120</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" t="s">
-        <v>143</v>
+        <v>117</v>
       </c>
       <c r="B79" t="s">
-        <v>144</v>
+        <v>120</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" t="s">
-        <v>142</v>
+        <v>121</v>
       </c>
       <c r="B80" t="s">
-        <v>144</v>
+        <v>122</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" t="s">
-        <v>145</v>
+        <v>123</v>
       </c>
       <c r="B81" t="s">
-        <v>146</v>
+        <v>122</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" t="s">
-        <v>147</v>
+        <v>124</v>
       </c>
       <c r="B82" t="s">
-        <v>146</v>
+        <v>125</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" t="s">
-        <v>148</v>
+        <v>126</v>
       </c>
       <c r="B83" t="s">
-        <v>149</v>
+        <v>125</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" t="s">
-        <v>150</v>
+        <v>127</v>
       </c>
       <c r="B84" t="s">
-        <v>149</v>
+        <v>128</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" t="s">
-        <v>151</v>
+        <v>129</v>
       </c>
       <c r="B85" t="s">
-        <v>152</v>
+        <v>128</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" t="s">
-        <v>153</v>
+        <v>130</v>
       </c>
       <c r="B86" t="s">
-        <v>152</v>
+        <v>131</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" t="s">
-        <v>154</v>
+        <v>132</v>
       </c>
       <c r="B87" t="s">
-        <v>155</v>
+        <v>131</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" t="s">
-        <v>156</v>
+        <v>133</v>
       </c>
       <c r="B88" t="s">
-        <v>155</v>
+        <v>134</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" t="s">
-        <v>157</v>
+        <v>135</v>
       </c>
       <c r="B89" t="s">
-        <v>158</v>
+        <v>134</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" t="s">
-        <v>159</v>
+        <v>137</v>
       </c>
       <c r="B90" t="s">
-        <v>160</v>
+        <v>138</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" t="s">
-        <v>161</v>
+        <v>136</v>
       </c>
       <c r="B91" t="s">
-        <v>163</v>
+        <v>138</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" t="s">
-        <v>162</v>
+        <v>139</v>
       </c>
       <c r="B92" t="s">
-        <v>163</v>
+        <v>140</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93" t="s">
+        <v>141</v>
+      </c>
+      <c r="B93" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94" t="s">
+        <v>142</v>
+      </c>
+      <c r="B94" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95" t="s">
+        <v>144</v>
+      </c>
+      <c r="B95" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96" t="s">
+        <v>145</v>
+      </c>
+      <c r="B96" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97" t="s">
+        <v>147</v>
+      </c>
+      <c r="B97" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98" t="s">
+        <v>148</v>
+      </c>
+      <c r="B98" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99" t="s">
+        <v>150</v>
+      </c>
+      <c r="B99" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
+      <c r="A100" t="s">
+        <v>151</v>
+      </c>
+      <c r="B100" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
+      <c r="A101" t="s">
+        <v>153</v>
+      </c>
+      <c r="B101" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2">
+      <c r="A102" t="s">
+        <v>155</v>
+      </c>
+      <c r="B102" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2">
+      <c r="A103" t="s">
+        <v>156</v>
+      </c>
+      <c r="B103" t="s">
+        <v>157</v>
       </c>
     </row>
   </sheetData>

--- a/localization_cn.xlsx
+++ b/localization_cn.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="244">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -228,10 +228,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>对一名敌人造成基于力量值的普通攻击。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>SKILL_NAME_1400</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -762,11 +758,223 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>攻击力提高。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每回合造成攻击者攻击力相关的伤害。</t>
+    <t>SKILL_NAME_6001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKILL_DESC_6001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暴击率增加，持续5回合。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKILL_NAME_6002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKILL_DESC_6002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吹牛皮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>防御力增加，持续3回合。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BUFFER_NAME_5002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BUFFER_DESC_5002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>牛皮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>防御力增加。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKILL_NAME_4001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKILL_DESC_4001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>萝卜汤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恢复体力最少者血量。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKILL_NAME_3004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKILL_DESC_3004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乱射</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BUFFER_NAME_5003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BUFFER_DESC_5003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>树皮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>受到的伤害减少50%。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKILL_NAME_6003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKILL_DESC_6003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>减少受到的伤害，持续3回合。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKILL_NAME_3005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKILL_DESC_3005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火球术</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成全体100%火焰伤害。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BUFFER_NAME_4001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BUFFER_DESC_4001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>腐化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每回合造成攻击者攻击力30%的伤害。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKILL_NAME_3006</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKILL_DESC_3006</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>呕吐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成全体腐化伤害，持续3回合。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BUFFER_NAME_5004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BUFFER_DESC_5004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>虚化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加50%闪避率。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKILL_NAME_6004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKILL_DESC_6004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加闪避率，持续3回合。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKILL_NAME_3007</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKILL_DESC_3007</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>诅咒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成100%伤害，并降低对方攻击力，持续3回合。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BUFFER_NAME_1005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BUFFER_DESC_1005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击力降低50%。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击力提高100%。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成攻击力100%的普通伤害。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>射出3支羽箭。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1111,15 +1319,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B103"/>
+  <dimension ref="A1:B131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="D72" sqref="D72"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="21.125" customWidth="1"/>
+    <col min="2" max="2" width="39.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -1148,7 +1357,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B4" t="s">
         <v>10</v>
@@ -1156,31 +1365,31 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B5" t="s">
         <v>62</v>
-      </c>
-      <c r="B5" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
+        <v>70</v>
+      </c>
+      <c r="B7" t="s">
         <v>71</v>
-      </c>
-      <c r="B7" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B8" t="s">
         <v>9</v>
@@ -1188,15 +1397,15 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B10" t="s">
         <v>20</v>
@@ -1204,15 +1413,15 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B12" t="s">
         <v>32</v>
@@ -1220,7 +1429,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B13" t="s">
         <v>33</v>
@@ -1228,7 +1437,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B14" t="s">
         <v>38</v>
@@ -1236,7 +1445,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B15" t="s">
         <v>39</v>
@@ -1244,7 +1453,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B16" t="s">
         <v>8</v>
@@ -1252,7 +1461,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B17" t="s">
         <v>47</v>
@@ -1260,7 +1469,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B18" t="s">
         <v>11</v>
@@ -1268,10 +1477,10 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B19" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -1292,7 +1501,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B22" t="s">
         <v>19</v>
@@ -1300,15 +1509,15 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
+        <v>67</v>
+      </c>
+      <c r="B23" t="s">
         <v>68</v>
-      </c>
-      <c r="B23" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B24" t="s">
         <v>21</v>
@@ -1316,7 +1525,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B25" t="s">
         <v>37</v>
@@ -1324,7 +1533,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B26" t="s">
         <v>22</v>
@@ -1332,15 +1541,15 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B27" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B28" t="s">
         <v>23</v>
@@ -1348,7 +1557,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B29" t="s">
         <v>27</v>
@@ -1447,7 +1656,7 @@
         <v>49</v>
       </c>
       <c r="B41" t="s">
-        <v>55</v>
+        <v>242</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -1468,487 +1677,712 @@
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B44" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B45" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B46" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B47" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B48" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B49" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B50" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B51" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>172</v>
+        <v>205</v>
       </c>
       <c r="B52" t="s">
-        <v>174</v>
+        <v>207</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>173</v>
+        <v>206</v>
       </c>
       <c r="B53" t="s">
-        <v>175</v>
+        <v>243</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="s">
-        <v>163</v>
+        <v>215</v>
       </c>
       <c r="B54" t="s">
-        <v>158</v>
+        <v>217</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" t="s">
-        <v>164</v>
+        <v>216</v>
       </c>
       <c r="B55" t="s">
-        <v>159</v>
+        <v>218</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" t="s">
-        <v>76</v>
+        <v>223</v>
       </c>
       <c r="B56" t="s">
-        <v>78</v>
+        <v>225</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" t="s">
-        <v>77</v>
+        <v>224</v>
       </c>
       <c r="B57" t="s">
-        <v>79</v>
+        <v>226</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" t="s">
-        <v>96</v>
+        <v>234</v>
       </c>
       <c r="B58" t="s">
-        <v>98</v>
+        <v>236</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" t="s">
-        <v>97</v>
+        <v>235</v>
       </c>
       <c r="B59" t="s">
-        <v>99</v>
+        <v>237</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" t="s">
-        <v>104</v>
+        <v>171</v>
       </c>
       <c r="B60" t="s">
-        <v>106</v>
+        <v>173</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" t="s">
-        <v>105</v>
+        <v>172</v>
       </c>
       <c r="B61" t="s">
-        <v>108</v>
+        <v>174</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" t="s">
-        <v>160</v>
+        <v>201</v>
       </c>
       <c r="B62" t="s">
-        <v>162</v>
+        <v>203</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" t="s">
-        <v>161</v>
+        <v>202</v>
       </c>
       <c r="B63" t="s">
-        <v>190</v>
+        <v>204</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" t="s">
-        <v>45</v>
+        <v>162</v>
       </c>
       <c r="B64" t="s">
-        <v>188</v>
+        <v>157</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" t="s">
-        <v>46</v>
+        <v>163</v>
       </c>
       <c r="B65" t="s">
-        <v>189</v>
+        <v>158</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" t="s">
-        <v>80</v>
+        <v>189</v>
       </c>
       <c r="B66" t="s">
-        <v>82</v>
+        <v>191</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" t="s">
-        <v>81</v>
+        <v>190</v>
       </c>
       <c r="B67" t="s">
-        <v>83</v>
+        <v>192</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" t="s">
-        <v>165</v>
+        <v>193</v>
       </c>
       <c r="B68" t="s">
-        <v>167</v>
+        <v>195</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" t="s">
-        <v>166</v>
+        <v>194</v>
       </c>
       <c r="B69" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" t="s">
-        <v>84</v>
+        <v>212</v>
       </c>
       <c r="B70" t="s">
-        <v>86</v>
+        <v>210</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" t="s">
-        <v>85</v>
+        <v>213</v>
       </c>
       <c r="B71" t="s">
-        <v>87</v>
+        <v>214</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" t="s">
-        <v>88</v>
+        <v>231</v>
       </c>
       <c r="B72" t="s">
-        <v>90</v>
+        <v>229</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" t="s">
-        <v>89</v>
+        <v>232</v>
       </c>
       <c r="B73" t="s">
-        <v>91</v>
+        <v>233</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" t="s">
-        <v>112</v>
+        <v>75</v>
       </c>
       <c r="B74" t="s">
-        <v>113</v>
+        <v>77</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" t="s">
-        <v>114</v>
+        <v>76</v>
       </c>
       <c r="B75" t="s">
-        <v>113</v>
+        <v>78</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" t="s">
-        <v>118</v>
+        <v>95</v>
       </c>
       <c r="B76" t="s">
-        <v>119</v>
+        <v>97</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
       <c r="B77" t="s">
-        <v>119</v>
+        <v>98</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="B78" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="B79" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" t="s">
-        <v>121</v>
+        <v>159</v>
       </c>
       <c r="B80" t="s">
-        <v>122</v>
+        <v>161</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" t="s">
-        <v>123</v>
+        <v>160</v>
       </c>
       <c r="B81" t="s">
-        <v>122</v>
+        <v>241</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" t="s">
-        <v>124</v>
+        <v>238</v>
       </c>
       <c r="B82" t="s">
-        <v>125</v>
+        <v>236</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" t="s">
-        <v>126</v>
+        <v>239</v>
       </c>
       <c r="B83" t="s">
-        <v>125</v>
+        <v>240</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" t="s">
-        <v>127</v>
+        <v>45</v>
       </c>
       <c r="B84" t="s">
-        <v>128</v>
+        <v>187</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" t="s">
-        <v>129</v>
+        <v>46</v>
       </c>
       <c r="B85" t="s">
-        <v>128</v>
+        <v>188</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" t="s">
-        <v>130</v>
+        <v>79</v>
       </c>
       <c r="B86" t="s">
-        <v>131</v>
+        <v>81</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" t="s">
-        <v>132</v>
+        <v>80</v>
       </c>
       <c r="B87" t="s">
-        <v>131</v>
+        <v>82</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" t="s">
-        <v>133</v>
+        <v>164</v>
       </c>
       <c r="B88" t="s">
-        <v>134</v>
+        <v>166</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" t="s">
-        <v>135</v>
+        <v>165</v>
       </c>
       <c r="B89" t="s">
-        <v>134</v>
+        <v>222</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" t="s">
-        <v>137</v>
+        <v>219</v>
       </c>
       <c r="B90" t="s">
-        <v>138</v>
+        <v>221</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" t="s">
-        <v>136</v>
+        <v>220</v>
       </c>
       <c r="B91" t="s">
-        <v>138</v>
+        <v>222</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" t="s">
-        <v>139</v>
+        <v>83</v>
       </c>
       <c r="B92" t="s">
-        <v>140</v>
+        <v>85</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" t="s">
-        <v>141</v>
+        <v>84</v>
       </c>
       <c r="B93" t="s">
-        <v>140</v>
+        <v>86</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" t="s">
-        <v>142</v>
+        <v>87</v>
       </c>
       <c r="B94" t="s">
-        <v>143</v>
+        <v>89</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95" t="s">
-        <v>144</v>
+        <v>88</v>
       </c>
       <c r="B95" t="s">
-        <v>143</v>
+        <v>90</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96" t="s">
-        <v>145</v>
+        <v>197</v>
       </c>
       <c r="B96" t="s">
-        <v>146</v>
+        <v>199</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" t="s">
-        <v>147</v>
+        <v>198</v>
       </c>
       <c r="B97" t="s">
-        <v>146</v>
+        <v>200</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98" t="s">
-        <v>148</v>
+        <v>208</v>
       </c>
       <c r="B98" t="s">
-        <v>149</v>
+        <v>210</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="A99" t="s">
-        <v>150</v>
+        <v>209</v>
       </c>
       <c r="B99" t="s">
-        <v>149</v>
+        <v>211</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100" t="s">
-        <v>151</v>
+        <v>227</v>
       </c>
       <c r="B100" t="s">
-        <v>152</v>
+        <v>229</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101" t="s">
-        <v>153</v>
+        <v>228</v>
       </c>
       <c r="B101" t="s">
-        <v>154</v>
+        <v>230</v>
       </c>
     </row>
     <row r="102" spans="1:2">
       <c r="A102" t="s">
-        <v>155</v>
+        <v>111</v>
       </c>
       <c r="B102" t="s">
-        <v>157</v>
+        <v>112</v>
       </c>
     </row>
     <row r="103" spans="1:2">
       <c r="A103" t="s">
+        <v>113</v>
+      </c>
+      <c r="B103" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2">
+      <c r="A104" t="s">
+        <v>117</v>
+      </c>
+      <c r="B104" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2">
+      <c r="A105" t="s">
+        <v>114</v>
+      </c>
+      <c r="B105" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2">
+      <c r="A106" t="s">
+        <v>115</v>
+      </c>
+      <c r="B106" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2">
+      <c r="A107" t="s">
+        <v>116</v>
+      </c>
+      <c r="B107" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2">
+      <c r="A108" t="s">
+        <v>120</v>
+      </c>
+      <c r="B108" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2">
+      <c r="A109" t="s">
+        <v>122</v>
+      </c>
+      <c r="B109" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2">
+      <c r="A110" t="s">
+        <v>123</v>
+      </c>
+      <c r="B110" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2">
+      <c r="A111" t="s">
+        <v>125</v>
+      </c>
+      <c r="B111" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2">
+      <c r="A112" t="s">
+        <v>126</v>
+      </c>
+      <c r="B112" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2">
+      <c r="A113" t="s">
+        <v>128</v>
+      </c>
+      <c r="B113" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2">
+      <c r="A114" t="s">
+        <v>129</v>
+      </c>
+      <c r="B114" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2">
+      <c r="A115" t="s">
+        <v>131</v>
+      </c>
+      <c r="B115" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2">
+      <c r="A116" t="s">
+        <v>132</v>
+      </c>
+      <c r="B116" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2">
+      <c r="A117" t="s">
+        <v>134</v>
+      </c>
+      <c r="B117" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2">
+      <c r="A118" t="s">
+        <v>136</v>
+      </c>
+      <c r="B118" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2">
+      <c r="A119" t="s">
+        <v>135</v>
+      </c>
+      <c r="B119" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2">
+      <c r="A120" t="s">
+        <v>138</v>
+      </c>
+      <c r="B120" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2">
+      <c r="A121" t="s">
+        <v>140</v>
+      </c>
+      <c r="B121" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2">
+      <c r="A122" t="s">
+        <v>141</v>
+      </c>
+      <c r="B122" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2">
+      <c r="A123" t="s">
+        <v>143</v>
+      </c>
+      <c r="B123" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2">
+      <c r="A124" t="s">
+        <v>144</v>
+      </c>
+      <c r="B124" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2">
+      <c r="A125" t="s">
+        <v>146</v>
+      </c>
+      <c r="B125" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2">
+      <c r="A126" t="s">
+        <v>147</v>
+      </c>
+      <c r="B126" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2">
+      <c r="A127" t="s">
+        <v>149</v>
+      </c>
+      <c r="B127" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2">
+      <c r="A128" t="s">
+        <v>150</v>
+      </c>
+      <c r="B128" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2">
+      <c r="A129" t="s">
+        <v>152</v>
+      </c>
+      <c r="B129" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2">
+      <c r="A130" t="s">
+        <v>154</v>
+      </c>
+      <c r="B130" t="s">
         <v>156</v>
       </c>
-      <c r="B103" t="s">
-        <v>157</v>
+    </row>
+    <row r="131" spans="1:2">
+      <c r="A131" t="s">
+        <v>155</v>
+      </c>
+      <c r="B131" t="s">
+        <v>156</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/localization_cn.xlsx
+++ b/localization_cn.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="258">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -51,18 +51,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>萝莉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>御姐</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>正太</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>SKILL_DESC_17</t>
   </si>
   <si>
@@ -116,10 +108,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>学识丰富，提升自身智力。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>胖子</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -196,10 +184,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>有爱人士，进行治疗时会触发基于魅力的群体治疗效果。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>SKILL_NAME_2000</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -236,10 +220,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>长的太可爱，让人不忍下重手，只能发挥出一半攻击力。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>SKILL_NAME_1200</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -292,10 +272,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>善解人意，技能有几率产生暴击。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>超强感知，有可能闪避攻击不受伤害。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -975,6 +951,86 @@
   </si>
   <si>
     <t>射出3支羽箭。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>很有弹性，只受到50%伤害。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开爱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学识丰富，提升治疗能力。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有爱人士，进行治疗时会触发群体治疗效果。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>善解人意，提升暴击率。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>勇猛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提升攻击力。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKILL_NAME_1606</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKILL_DESC_1606</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BUFFER_NAME_1006</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BUFFER_DESC_1006</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击力上升30%。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BUFFER_NAME_3000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BUFFER_DESC_3000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>甜蜜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每回合恢复一定生命值。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKILL_NAME_1607</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKILL_DESC_1607</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>温柔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被治疗的对象会进入甜蜜状态，每回合恢复血量。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1319,10 +1375,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B131"/>
+  <dimension ref="A1:B139"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D50" sqref="D50"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1341,7 +1397,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
@@ -1349,7 +1405,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
@@ -1357,103 +1413,103 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B5" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B6" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B7" t="s">
-        <v>71</v>
+        <v>242</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B9" t="s">
-        <v>57</v>
+        <v>238</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="B11" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="B12" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="B13" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="B14" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="B15" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B16" t="s">
         <v>8</v>
@@ -1461,31 +1517,31 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B17" t="s">
-        <v>47</v>
+        <v>241</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B18" t="s">
-        <v>11</v>
+        <v>239</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B19" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B20" t="s">
         <v>6</v>
@@ -1493,890 +1549,954 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B21" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B22" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B23" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="B24" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="B25" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="B26" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="B27" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="B28" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="B29" t="s">
-        <v>27</v>
+        <v>240</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>3</v>
+        <v>245</v>
       </c>
       <c r="B30" t="s">
-        <v>24</v>
+        <v>243</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>4</v>
+        <v>246</v>
       </c>
       <c r="B31" t="s">
-        <v>31</v>
+        <v>244</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>5</v>
+        <v>254</v>
       </c>
       <c r="B32" t="s">
-        <v>25</v>
+        <v>256</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>12</v>
+        <v>255</v>
       </c>
       <c r="B33" t="s">
-        <v>30</v>
+        <v>257</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="B34" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B35" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="B36" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B37" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B38" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B39" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="B40" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="B41" t="s">
-        <v>242</v>
+        <v>32</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="B42" t="s">
-        <v>52</v>
+        <v>25</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="B43" t="s">
-        <v>54</v>
+        <v>26</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>179</v>
+        <v>44</v>
       </c>
       <c r="B44" t="s">
-        <v>181</v>
+        <v>46</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>180</v>
+        <v>45</v>
       </c>
       <c r="B45" t="s">
-        <v>182</v>
+        <v>236</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>167</v>
+        <v>47</v>
       </c>
       <c r="B46" t="s">
-        <v>169</v>
+        <v>48</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>168</v>
+        <v>49</v>
       </c>
       <c r="B47" t="s">
-        <v>170</v>
+        <v>50</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" t="s">
+        <v>173</v>
+      </c>
+      <c r="B48" t="s">
         <v>175</v>
-      </c>
-      <c r="B48" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
+        <v>174</v>
+      </c>
+      <c r="B49" t="s">
         <v>176</v>
-      </c>
-      <c r="B49" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>183</v>
+        <v>161</v>
       </c>
       <c r="B50" t="s">
-        <v>185</v>
+        <v>163</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>184</v>
+        <v>162</v>
       </c>
       <c r="B51" t="s">
-        <v>186</v>
+        <v>164</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>205</v>
+        <v>169</v>
       </c>
       <c r="B52" t="s">
-        <v>207</v>
+        <v>171</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>206</v>
+        <v>170</v>
       </c>
       <c r="B53" t="s">
-        <v>243</v>
+        <v>172</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="s">
-        <v>215</v>
+        <v>177</v>
       </c>
       <c r="B54" t="s">
-        <v>217</v>
+        <v>179</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" t="s">
-        <v>216</v>
+        <v>178</v>
       </c>
       <c r="B55" t="s">
-        <v>218</v>
+        <v>180</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" t="s">
-        <v>223</v>
+        <v>199</v>
       </c>
       <c r="B56" t="s">
-        <v>225</v>
+        <v>201</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" t="s">
-        <v>224</v>
+        <v>200</v>
       </c>
       <c r="B57" t="s">
-        <v>226</v>
+        <v>237</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" t="s">
-        <v>234</v>
+        <v>209</v>
       </c>
       <c r="B58" t="s">
-        <v>236</v>
+        <v>211</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" t="s">
-        <v>235</v>
+        <v>210</v>
       </c>
       <c r="B59" t="s">
-        <v>237</v>
+        <v>212</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" t="s">
-        <v>171</v>
+        <v>217</v>
       </c>
       <c r="B60" t="s">
-        <v>173</v>
+        <v>219</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" t="s">
-        <v>172</v>
+        <v>218</v>
       </c>
       <c r="B61" t="s">
-        <v>174</v>
+        <v>220</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" t="s">
-        <v>201</v>
+        <v>228</v>
       </c>
       <c r="B62" t="s">
-        <v>203</v>
+        <v>230</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" t="s">
-        <v>202</v>
+        <v>229</v>
       </c>
       <c r="B63" t="s">
-        <v>204</v>
+        <v>231</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="B64" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="B65" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="B66" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="B67" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" t="s">
-        <v>193</v>
+        <v>156</v>
       </c>
       <c r="B68" t="s">
-        <v>195</v>
+        <v>151</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" t="s">
-        <v>194</v>
+        <v>157</v>
       </c>
       <c r="B69" t="s">
-        <v>196</v>
+        <v>152</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" t="s">
-        <v>212</v>
+        <v>183</v>
       </c>
       <c r="B70" t="s">
-        <v>210</v>
+        <v>185</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" t="s">
-        <v>213</v>
+        <v>184</v>
       </c>
       <c r="B71" t="s">
-        <v>214</v>
+        <v>186</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" t="s">
-        <v>231</v>
+        <v>187</v>
       </c>
       <c r="B72" t="s">
-        <v>229</v>
+        <v>189</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" t="s">
-        <v>232</v>
+        <v>188</v>
       </c>
       <c r="B73" t="s">
-        <v>233</v>
+        <v>190</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" t="s">
-        <v>75</v>
+        <v>206</v>
       </c>
       <c r="B74" t="s">
-        <v>77</v>
+        <v>204</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" t="s">
-        <v>76</v>
+        <v>207</v>
       </c>
       <c r="B75" t="s">
-        <v>78</v>
+        <v>208</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" t="s">
-        <v>95</v>
+        <v>225</v>
       </c>
       <c r="B76" t="s">
-        <v>97</v>
+        <v>223</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" t="s">
-        <v>96</v>
+        <v>226</v>
       </c>
       <c r="B77" t="s">
-        <v>98</v>
+        <v>227</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" t="s">
-        <v>103</v>
+        <v>69</v>
       </c>
       <c r="B78" t="s">
-        <v>105</v>
+        <v>71</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" t="s">
-        <v>104</v>
+        <v>70</v>
       </c>
       <c r="B79" t="s">
-        <v>107</v>
+        <v>72</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" t="s">
-        <v>159</v>
+        <v>89</v>
       </c>
       <c r="B80" t="s">
-        <v>161</v>
+        <v>91</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" t="s">
-        <v>160</v>
+        <v>90</v>
       </c>
       <c r="B81" t="s">
-        <v>241</v>
+        <v>92</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" t="s">
-        <v>238</v>
+        <v>97</v>
       </c>
       <c r="B82" t="s">
-        <v>236</v>
+        <v>99</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" t="s">
-        <v>239</v>
+        <v>98</v>
       </c>
       <c r="B83" t="s">
-        <v>240</v>
+        <v>101</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" t="s">
-        <v>45</v>
+        <v>153</v>
       </c>
       <c r="B84" t="s">
-        <v>187</v>
+        <v>155</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" t="s">
-        <v>46</v>
+        <v>154</v>
       </c>
       <c r="B85" t="s">
-        <v>188</v>
+        <v>235</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" t="s">
-        <v>79</v>
+        <v>232</v>
       </c>
       <c r="B86" t="s">
-        <v>81</v>
+        <v>230</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" t="s">
-        <v>80</v>
+        <v>233</v>
       </c>
       <c r="B87" t="s">
-        <v>82</v>
+        <v>234</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" t="s">
-        <v>164</v>
+        <v>247</v>
       </c>
       <c r="B88" t="s">
-        <v>166</v>
+        <v>243</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" t="s">
-        <v>165</v>
+        <v>248</v>
       </c>
       <c r="B89" t="s">
-        <v>222</v>
+        <v>249</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" t="s">
-        <v>219</v>
+        <v>42</v>
       </c>
       <c r="B90" t="s">
-        <v>221</v>
+        <v>181</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" t="s">
-        <v>220</v>
+        <v>43</v>
       </c>
       <c r="B91" t="s">
-        <v>222</v>
+        <v>182</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="B92" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="B93" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" t="s">
-        <v>87</v>
+        <v>250</v>
       </c>
       <c r="B94" t="s">
-        <v>89</v>
+        <v>252</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95" t="s">
-        <v>88</v>
+        <v>251</v>
       </c>
       <c r="B95" t="s">
-        <v>90</v>
+        <v>253</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96" t="s">
-        <v>197</v>
+        <v>158</v>
       </c>
       <c r="B96" t="s">
-        <v>199</v>
+        <v>160</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" t="s">
-        <v>198</v>
+        <v>159</v>
       </c>
       <c r="B97" t="s">
-        <v>200</v>
+        <v>216</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="B98" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="A99" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="B99" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100" t="s">
-        <v>227</v>
+        <v>77</v>
       </c>
       <c r="B100" t="s">
-        <v>229</v>
+        <v>79</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101" t="s">
-        <v>228</v>
+        <v>78</v>
       </c>
       <c r="B101" t="s">
-        <v>230</v>
+        <v>80</v>
       </c>
     </row>
     <row r="102" spans="1:2">
       <c r="A102" t="s">
-        <v>111</v>
+        <v>81</v>
       </c>
       <c r="B102" t="s">
-        <v>112</v>
+        <v>83</v>
       </c>
     </row>
     <row r="103" spans="1:2">
       <c r="A103" t="s">
-        <v>113</v>
+        <v>82</v>
       </c>
       <c r="B103" t="s">
-        <v>112</v>
+        <v>84</v>
       </c>
     </row>
     <row r="104" spans="1:2">
       <c r="A104" t="s">
-        <v>117</v>
+        <v>191</v>
       </c>
       <c r="B104" t="s">
-        <v>118</v>
+        <v>193</v>
       </c>
     </row>
     <row r="105" spans="1:2">
       <c r="A105" t="s">
-        <v>114</v>
+        <v>192</v>
       </c>
       <c r="B105" t="s">
-        <v>118</v>
+        <v>194</v>
       </c>
     </row>
     <row r="106" spans="1:2">
       <c r="A106" t="s">
-        <v>115</v>
+        <v>202</v>
       </c>
       <c r="B106" t="s">
-        <v>119</v>
+        <v>204</v>
       </c>
     </row>
     <row r="107" spans="1:2">
       <c r="A107" t="s">
-        <v>116</v>
+        <v>203</v>
       </c>
       <c r="B107" t="s">
-        <v>119</v>
+        <v>205</v>
       </c>
     </row>
     <row r="108" spans="1:2">
       <c r="A108" t="s">
-        <v>120</v>
+        <v>221</v>
       </c>
       <c r="B108" t="s">
-        <v>121</v>
+        <v>223</v>
       </c>
     </row>
     <row r="109" spans="1:2">
       <c r="A109" t="s">
-        <v>122</v>
+        <v>222</v>
       </c>
       <c r="B109" t="s">
-        <v>121</v>
+        <v>224</v>
       </c>
     </row>
     <row r="110" spans="1:2">
       <c r="A110" t="s">
-        <v>123</v>
+        <v>105</v>
       </c>
       <c r="B110" t="s">
-        <v>124</v>
+        <v>106</v>
       </c>
     </row>
     <row r="111" spans="1:2">
       <c r="A111" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
       <c r="B111" t="s">
-        <v>124</v>
+        <v>106</v>
       </c>
     </row>
     <row r="112" spans="1:2">
       <c r="A112" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
     </row>
     <row r="113" spans="1:2">
       <c r="A113" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
       <c r="B113" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
     </row>
     <row r="114" spans="1:2">
       <c r="A114" t="s">
-        <v>129</v>
+        <v>109</v>
       </c>
       <c r="B114" t="s">
-        <v>130</v>
+        <v>113</v>
       </c>
     </row>
     <row r="115" spans="1:2">
       <c r="A115" t="s">
-        <v>131</v>
+        <v>110</v>
       </c>
       <c r="B115" t="s">
-        <v>130</v>
+        <v>113</v>
       </c>
     </row>
     <row r="116" spans="1:2">
       <c r="A116" t="s">
-        <v>132</v>
+        <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
     </row>
     <row r="117" spans="1:2">
       <c r="A117" t="s">
-        <v>134</v>
+        <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
     </row>
     <row r="118" spans="1:2">
       <c r="A118" t="s">
-        <v>136</v>
+        <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>137</v>
+        <v>118</v>
       </c>
     </row>
     <row r="119" spans="1:2">
       <c r="A119" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
       <c r="B119" t="s">
-        <v>137</v>
+        <v>118</v>
       </c>
     </row>
     <row r="120" spans="1:2">
       <c r="A120" t="s">
-        <v>138</v>
+        <v>120</v>
       </c>
       <c r="B120" t="s">
-        <v>139</v>
+        <v>121</v>
       </c>
     </row>
     <row r="121" spans="1:2">
       <c r="A121" t="s">
-        <v>140</v>
+        <v>122</v>
       </c>
       <c r="B121" t="s">
-        <v>139</v>
+        <v>121</v>
       </c>
     </row>
     <row r="122" spans="1:2">
       <c r="A122" t="s">
-        <v>141</v>
+        <v>123</v>
       </c>
       <c r="B122" t="s">
-        <v>142</v>
+        <v>124</v>
       </c>
     </row>
     <row r="123" spans="1:2">
       <c r="A123" t="s">
-        <v>143</v>
+        <v>125</v>
       </c>
       <c r="B123" t="s">
-        <v>142</v>
+        <v>124</v>
       </c>
     </row>
     <row r="124" spans="1:2">
       <c r="A124" t="s">
-        <v>144</v>
+        <v>126</v>
       </c>
       <c r="B124" t="s">
-        <v>145</v>
+        <v>127</v>
       </c>
     </row>
     <row r="125" spans="1:2">
       <c r="A125" t="s">
-        <v>146</v>
+        <v>128</v>
       </c>
       <c r="B125" t="s">
-        <v>145</v>
+        <v>127</v>
       </c>
     </row>
     <row r="126" spans="1:2">
       <c r="A126" t="s">
-        <v>147</v>
+        <v>130</v>
       </c>
       <c r="B126" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
     </row>
     <row r="127" spans="1:2">
       <c r="A127" t="s">
-        <v>149</v>
+        <v>129</v>
       </c>
       <c r="B127" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
     </row>
     <row r="128" spans="1:2">
       <c r="A128" t="s">
-        <v>150</v>
+        <v>132</v>
       </c>
       <c r="B128" t="s">
-        <v>151</v>
+        <v>133</v>
       </c>
     </row>
     <row r="129" spans="1:2">
       <c r="A129" t="s">
-        <v>152</v>
+        <v>134</v>
       </c>
       <c r="B129" t="s">
-        <v>153</v>
+        <v>133</v>
       </c>
     </row>
     <row r="130" spans="1:2">
       <c r="A130" t="s">
-        <v>154</v>
+        <v>135</v>
       </c>
       <c r="B130" t="s">
-        <v>156</v>
+        <v>136</v>
       </c>
     </row>
     <row r="131" spans="1:2">
       <c r="A131" t="s">
-        <v>155</v>
+        <v>137</v>
       </c>
       <c r="B131" t="s">
-        <v>156</v>
+        <v>136</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2">
+      <c r="A132" t="s">
+        <v>138</v>
+      </c>
+      <c r="B132" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2">
+      <c r="A133" t="s">
+        <v>140</v>
+      </c>
+      <c r="B133" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2">
+      <c r="A134" t="s">
+        <v>141</v>
+      </c>
+      <c r="B134" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2">
+      <c r="A135" t="s">
+        <v>143</v>
+      </c>
+      <c r="B135" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2">
+      <c r="A136" t="s">
+        <v>144</v>
+      </c>
+      <c r="B136" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2">
+      <c r="A137" t="s">
+        <v>146</v>
+      </c>
+      <c r="B137" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2">
+      <c r="A138" t="s">
+        <v>148</v>
+      </c>
+      <c r="B138" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2">
+      <c r="A139" t="s">
+        <v>149</v>
+      </c>
+      <c r="B139" t="s">
+        <v>150</v>
       </c>
     </row>
   </sheetData>

--- a/localization_cn.xlsx
+++ b/localization_cn.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="300" windowWidth="17955" windowHeight="7290"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38240" windowHeight="19640"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,11 +12,750 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="262">
+  <si>
+    <t>BUFFER_NAME_1005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BUFFER_DESC_1005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击力降低50%。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击力提高100%。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成攻击力100%的普通伤害。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>射出3支羽箭。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>很有弹性，只受到50%伤害。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开爱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学识丰富，提升治疗能力。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有爱人士，进行治疗时会触发群体治疗效果。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>善解人意，提升暴击率。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>勇猛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提升攻击力。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKILL_NAME_1606</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKILL_DESC_1606</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BUFFER_NAME_1006</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BUFFER_DESC_1006</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击力上升30%。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BUFFER_NAME_3000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BUFFER_DESC_3000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>甜蜜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每回合恢复一定生命值。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKILL_NAME_1607</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKILL_DESC_1607</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>温柔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被治疗的对象会进入甜蜜状态，每回合恢复血量。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TXT_SELECT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TXT_CANCEL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选取</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>取消</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKILL_NAME_6000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKILL_DESC_6000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BUFFER_NAME_4000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BUFFER_DESC_4000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>流血</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKILL_NAME_3001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKILL_DESC_3001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乱抓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>爪击对方，并造成持续流血效果。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKILL_NAME_4000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKILL_DESC_4000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冬眠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恢复50%最大血量。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKILL_NAME_3002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKILL_DESC_3002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>铁拳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发动两次攻击，每次造成150%攻击力的伤害。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKILL_NAME_3000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKILL_DESC_3000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>十字斩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成400%攻击力的伤害。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKILL_NAME_3003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKILL_DESC_3003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>背书</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成伤害并使对方眩晕1回合。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>眩晕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晕头转向。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKILL_NAME_6001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKILL_DESC_6001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暴击率增加，持续5回合。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKILL_NAME_6002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKILL_DESC_6002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吹牛皮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>防御力增加，持续3回合。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BUFFER_NAME_5002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BUFFER_DESC_5002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>牛皮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>防御力增加。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKILL_NAME_4001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKILL_DESC_4001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>萝卜汤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恢复体力最少者血量。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKILL_NAME_3004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKILL_DESC_3004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乱射</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BUFFER_NAME_5003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BUFFER_DESC_5003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>树皮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>受到的伤害减少50%。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKILL_NAME_6003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKILL_DESC_6003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>减少受到的伤害，持续3回合。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKILL_NAME_3005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKILL_DESC_3005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火球术</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成全体100%火焰伤害。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BUFFER_NAME_4001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BUFFER_DESC_4001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>腐化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每回合造成攻击者攻击力30%的伤害。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKILL_NAME_3006</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKILL_DESC_3006</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>呕吐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成全体腐化伤害，持续3回合。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BUFFER_NAME_5004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BUFFER_DESC_5004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>虚化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加50%闪避率。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKILL_NAME_6004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKILL_DESC_6004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加闪避率，持续3回合。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKILL_NAME_3007</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKILL_DESC_3007</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>诅咒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成100%伤害，并降低对方攻击力，持续3回合。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BUFFER_NAME_5000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BUFFER_DESC_5000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可爱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>敌人对你只造成一半的普通攻击伤害。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BUFFER_NAME_5001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BUFFER_DESC_5001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第六感</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有几率闪避敌人造成的伤害。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKILL_NAME_1202</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKILL_DESC_1202</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKILL_NAME_1203</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKILL_DESC_1203</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BUFFER_NAME_1001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BUFFER_DESC_1001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发呆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>看起来呆头呆脑，难道是扮猪吃老虎？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKILL_NAME_1602</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKILL_DESC_1602</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKILL_NAME_1603</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKILL_DESC_1603</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BUFFER_NAME_1002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BUFFER_DESC_1002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>昏昏欲睡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>睡不醒，减少睡眠技能所需能量。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>睡眠技能所需能量减少。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大叔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKILL_NAME_1605</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKILL_DESC_1605</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SOUL_NAME_1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>狗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SOUL_DESC_1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SOUL_DESC_1001</t>
+  </si>
+  <si>
+    <t>SOUL_NAME_1002</t>
+  </si>
+  <si>
+    <t>SOUL_DESC_1002</t>
+  </si>
+  <si>
+    <t>SOUL_NAME_1001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>猫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>熊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SOUL_NAME_2001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拳师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SOUL_DESC_2001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SOUL_NAME_2002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>武士</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SOUL_DESC_2002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SOUL_NAME_2003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SOUL_DESC_2003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SOUL_NAME_3000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兽人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SOUL_DESC_3000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SOUL_NAME_3001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>牛头人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SOUL_DESC_3001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SOUL_DESC_3002</t>
+  </si>
+  <si>
+    <t>SOUL_NAME_3002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兔头萨满</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SOUL_NAME_4000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>精灵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SOUL_DESC_4000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SOUL_NAME_4001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>古树</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SOUL_DESC_4001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SOUL_NAME_4002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑精灵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SOUL_DESC_4002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SOUL_NAME_5000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>骷髅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SOUL_DESC_5000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SOUL_NAME_5001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>僵尸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SOUL_DESC_5001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>僵尸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SOUL_NAME_5002</t>
+  </si>
+  <si>
+    <t>SOUL_DESC_5002</t>
+  </si>
+  <si>
+    <t>鬼魂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>疯狂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击力提高100%，持续3回合。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BUFFER_NAME_1003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BUFFER_DESC_1003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>疯狂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -313,724 +1052,6 @@
   </si>
   <si>
     <t>不能释放热血技能。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BUFFER_NAME_5000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BUFFER_DESC_5000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>可爱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>敌人对你只造成一半的普通攻击伤害。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BUFFER_NAME_5001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BUFFER_DESC_5001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第六感</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>有几率闪避敌人造成的伤害。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SKILL_NAME_1202</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SKILL_DESC_1202</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SKILL_NAME_1203</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SKILL_DESC_1203</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BUFFER_NAME_1001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BUFFER_DESC_1001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>发呆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>看起来呆头呆脑，难道是扮猪吃老虎？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SKILL_NAME_1602</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SKILL_DESC_1602</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SKILL_NAME_1603</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SKILL_DESC_1603</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BUFFER_NAME_1002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BUFFER_DESC_1002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>昏昏欲睡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>睡不醒，减少睡眠技能所需能量。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>睡眠技能所需能量减少。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大叔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SKILL_NAME_1605</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SKILL_DESC_1605</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SOUL_NAME_1000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>狗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SOUL_DESC_1000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SOUL_DESC_1001</t>
-  </si>
-  <si>
-    <t>SOUL_NAME_1002</t>
-  </si>
-  <si>
-    <t>SOUL_DESC_1002</t>
-  </si>
-  <si>
-    <t>SOUL_NAME_1001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>猫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>熊</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SOUL_NAME_2001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>拳师</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SOUL_DESC_2001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SOUL_NAME_2002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>武士</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SOUL_DESC_2002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SOUL_NAME_2003</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>学者</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SOUL_DESC_2003</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SOUL_NAME_3000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>兽人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SOUL_DESC_3000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SOUL_NAME_3001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>牛头人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SOUL_DESC_3001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SOUL_DESC_3002</t>
-  </si>
-  <si>
-    <t>SOUL_NAME_3002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>兔头萨满</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SOUL_NAME_4000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>精灵</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SOUL_DESC_4000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SOUL_NAME_4001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>古树</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SOUL_DESC_4001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SOUL_NAME_4002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>黑精灵</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SOUL_DESC_4002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SOUL_NAME_5000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>骷髅</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SOUL_DESC_5000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SOUL_NAME_5001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>僵尸</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SOUL_DESC_5001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>僵尸</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SOUL_NAME_5002</t>
-  </si>
-  <si>
-    <t>SOUL_DESC_5002</t>
-  </si>
-  <si>
-    <t>鬼魂</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>疯狂</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻击力提高100%，持续3回合。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BUFFER_NAME_1003</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BUFFER_DESC_1003</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>疯狂</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SKILL_NAME_6000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SKILL_DESC_6000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BUFFER_NAME_4000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BUFFER_DESC_4000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>流血</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SKILL_NAME_3001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SKILL_DESC_3001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>乱抓</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>爪击对方，并造成持续流血效果。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SKILL_NAME_4000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SKILL_DESC_4000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>冬眠</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>恢复50%最大血量。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SKILL_NAME_3002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SKILL_DESC_3002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>铁拳</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>发动两次攻击，每次造成150%攻击力的伤害。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SKILL_NAME_3000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SKILL_DESC_3000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>十字斩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>造成400%攻击力的伤害。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SKILL_NAME_3003</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SKILL_DESC_3003</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>背书</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>造成伤害并使对方眩晕1回合。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>眩晕</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>晕头转向。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SKILL_NAME_6001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SKILL_DESC_6001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>重击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>暴击率增加，持续5回合。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SKILL_NAME_6002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SKILL_DESC_6002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>吹牛皮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>防御力增加，持续3回合。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BUFFER_NAME_5002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BUFFER_DESC_5002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>牛皮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>防御力增加。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SKILL_NAME_4001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SKILL_DESC_4001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>萝卜汤</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>恢复体力最少者血量。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SKILL_NAME_3004</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SKILL_DESC_3004</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>乱射</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BUFFER_NAME_5003</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BUFFER_DESC_5003</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>树皮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>受到的伤害减少50%。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SKILL_NAME_6003</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SKILL_DESC_6003</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>减少受到的伤害，持续3回合。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SKILL_NAME_3005</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SKILL_DESC_3005</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>火球术</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>造成全体100%火焰伤害。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BUFFER_NAME_4001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BUFFER_DESC_4001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>腐化</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每回合造成攻击者攻击力30%的伤害。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SKILL_NAME_3006</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SKILL_DESC_3006</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>呕吐</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>造成全体腐化伤害，持续3回合。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BUFFER_NAME_5004</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BUFFER_DESC_5004</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>虚化</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>增加50%闪避率。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SKILL_NAME_6004</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SKILL_DESC_6004</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>增加闪避率，持续3回合。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SKILL_NAME_3007</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SKILL_DESC_3007</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>诅咒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>造成100%伤害，并降低对方攻击力，持续3回合。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BUFFER_NAME_1005</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BUFFER_DESC_1005</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻击力降低50%。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻击力提高100%。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>造成攻击力100%的普通伤害。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>射出3支羽箭。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>很有弹性，只受到50%伤害。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开爱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>学识丰富，提升治疗能力。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>有爱人士，进行治疗时会触发群体治疗效果。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>善解人意，提升暴击率。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>勇猛</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>提升攻击力。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SKILL_NAME_1606</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SKILL_DESC_1606</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BUFFER_NAME_1006</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BUFFER_DESC_1006</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻击力上升30%。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BUFFER_NAME_3000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BUFFER_DESC_3000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>甜蜜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每回合恢复一定生命值。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SKILL_NAME_1607</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SKILL_DESC_1607</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>温柔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>被治疗的对象会进入甜蜜状态，每回合恢复血量。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1083,10 +1104,10 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -1374,1160 +1395,1190 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B139"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+  <dimension ref="A1:B141"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="C45" sqref="C45"/>
+    <sheetView tabSelected="1" topLeftCell="A120" workbookViewId="0">
+      <selection activeCell="B146" sqref="B146"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="21.125" customWidth="1"/>
-    <col min="2" max="2" width="39.75" customWidth="1"/>
+    <col min="1" max="1" width="21.1640625" customWidth="1"/>
+    <col min="2" max="2" width="39.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>186</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>37</v>
+        <v>222</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>187</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>38</v>
+        <v>223</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>192</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>55</v>
+        <v>240</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>194</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>56</v>
+        <v>241</v>
       </c>
       <c r="B5" t="s">
-        <v>57</v>
+        <v>242</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>64</v>
+        <v>249</v>
       </c>
       <c r="B6" t="s">
-        <v>102</v>
+        <v>131</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>65</v>
+        <v>250</v>
       </c>
       <c r="B7" t="s">
-        <v>242</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>53</v>
+        <v>238</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>210</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>54</v>
+        <v>239</v>
       </c>
       <c r="B9" t="s">
-        <v>238</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>67</v>
+        <v>252</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>203</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>68</v>
+        <v>253</v>
       </c>
       <c r="B11" t="s">
-        <v>66</v>
+        <v>251</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>85</v>
+        <v>114</v>
       </c>
       <c r="B12" t="s">
-        <v>29</v>
+        <v>214</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>86</v>
+        <v>115</v>
       </c>
       <c r="B13" t="s">
-        <v>30</v>
+        <v>215</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>87</v>
+        <v>116</v>
       </c>
       <c r="B14" t="s">
-        <v>35</v>
+        <v>220</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>88</v>
+        <v>117</v>
       </c>
       <c r="B15" t="s">
-        <v>36</v>
+        <v>221</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>51</v>
+        <v>236</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>193</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>52</v>
+        <v>237</v>
       </c>
       <c r="B17" t="s">
-        <v>241</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>59</v>
+        <v>244</v>
       </c>
       <c r="B18" t="s">
-        <v>239</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>60</v>
+        <v>245</v>
       </c>
       <c r="B19" t="s">
-        <v>58</v>
+        <v>243</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>40</v>
+        <v>225</v>
       </c>
       <c r="B20" t="s">
-        <v>6</v>
+        <v>191</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>41</v>
+        <v>226</v>
       </c>
       <c r="B21" t="s">
-        <v>39</v>
+        <v>224</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>61</v>
+        <v>246</v>
       </c>
       <c r="B22" t="s">
-        <v>17</v>
+        <v>202</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>62</v>
+        <v>247</v>
       </c>
       <c r="B23" t="s">
-        <v>63</v>
+        <v>248</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>93</v>
+        <v>122</v>
       </c>
       <c r="B24" t="s">
-        <v>19</v>
+        <v>204</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>94</v>
+        <v>123</v>
       </c>
       <c r="B25" t="s">
-        <v>34</v>
+        <v>219</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>95</v>
+        <v>124</v>
       </c>
       <c r="B26" t="s">
-        <v>20</v>
+        <v>205</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>96</v>
+        <v>125</v>
       </c>
       <c r="B27" t="s">
-        <v>100</v>
+        <v>129</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>103</v>
+        <v>132</v>
       </c>
       <c r="B28" t="s">
-        <v>21</v>
+        <v>206</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>104</v>
+        <v>133</v>
       </c>
       <c r="B29" t="s">
-        <v>240</v>
+        <v>8</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>245</v>
+        <v>13</v>
       </c>
       <c r="B30" t="s">
-        <v>243</v>
+        <v>11</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>246</v>
+        <v>14</v>
       </c>
       <c r="B31" t="s">
-        <v>244</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>254</v>
+        <v>22</v>
       </c>
       <c r="B32" t="s">
-        <v>256</v>
+        <v>24</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>255</v>
+        <v>23</v>
       </c>
       <c r="B33" t="s">
-        <v>257</v>
+        <v>25</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>3</v>
+        <v>188</v>
       </c>
       <c r="B34" t="s">
-        <v>22</v>
+        <v>207</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>4</v>
+        <v>189</v>
       </c>
       <c r="B35" t="s">
-        <v>28</v>
+        <v>213</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>5</v>
+        <v>190</v>
       </c>
       <c r="B36" t="s">
-        <v>23</v>
+        <v>208</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>10</v>
+        <v>195</v>
       </c>
       <c r="B37" t="s">
-        <v>27</v>
+        <v>212</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>11</v>
+        <v>196</v>
       </c>
       <c r="B38" t="s">
-        <v>24</v>
+        <v>209</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>12</v>
+        <v>197</v>
       </c>
       <c r="B39" t="s">
-        <v>33</v>
+        <v>218</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>13</v>
+        <v>198</v>
       </c>
       <c r="B40" t="s">
-        <v>31</v>
+        <v>216</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>14</v>
+        <v>199</v>
       </c>
       <c r="B41" t="s">
-        <v>32</v>
+        <v>217</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>15</v>
+        <v>200</v>
       </c>
       <c r="B42" t="s">
-        <v>25</v>
+        <v>210</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>16</v>
+        <v>201</v>
       </c>
       <c r="B43" t="s">
-        <v>26</v>
+        <v>211</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>44</v>
+        <v>229</v>
       </c>
       <c r="B44" t="s">
-        <v>46</v>
+        <v>231</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>45</v>
+        <v>230</v>
       </c>
       <c r="B45" t="s">
-        <v>236</v>
+        <v>4</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>47</v>
+        <v>232</v>
       </c>
       <c r="B46" t="s">
-        <v>48</v>
+        <v>233</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>49</v>
+        <v>234</v>
       </c>
       <c r="B47" t="s">
-        <v>50</v>
+        <v>235</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" t="s">
-        <v>173</v>
+        <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>175</v>
+        <v>49</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>174</v>
+        <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>176</v>
+        <v>50</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>161</v>
+        <v>35</v>
       </c>
       <c r="B50" t="s">
-        <v>163</v>
+        <v>37</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>162</v>
+        <v>36</v>
       </c>
       <c r="B51" t="s">
-        <v>164</v>
+        <v>38</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>169</v>
+        <v>43</v>
       </c>
       <c r="B52" t="s">
-        <v>171</v>
+        <v>45</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>170</v>
+        <v>44</v>
       </c>
       <c r="B53" t="s">
-        <v>172</v>
+        <v>46</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="s">
-        <v>177</v>
+        <v>51</v>
       </c>
       <c r="B54" t="s">
-        <v>179</v>
+        <v>53</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" t="s">
-        <v>178</v>
+        <v>52</v>
       </c>
       <c r="B55" t="s">
-        <v>180</v>
+        <v>54</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" t="s">
-        <v>199</v>
+        <v>73</v>
       </c>
       <c r="B56" t="s">
-        <v>201</v>
+        <v>75</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" t="s">
-        <v>200</v>
+        <v>74</v>
       </c>
       <c r="B57" t="s">
-        <v>237</v>
+        <v>5</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" t="s">
-        <v>209</v>
+        <v>83</v>
       </c>
       <c r="B58" t="s">
-        <v>211</v>
+        <v>85</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" t="s">
-        <v>210</v>
+        <v>84</v>
       </c>
       <c r="B59" t="s">
-        <v>212</v>
+        <v>86</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" t="s">
-        <v>217</v>
+        <v>91</v>
       </c>
       <c r="B60" t="s">
-        <v>219</v>
+        <v>93</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" t="s">
-        <v>218</v>
+        <v>92</v>
       </c>
       <c r="B61" t="s">
-        <v>220</v>
+        <v>94</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" t="s">
-        <v>228</v>
+        <v>102</v>
       </c>
       <c r="B62" t="s">
-        <v>230</v>
+        <v>104</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" t="s">
-        <v>229</v>
+        <v>103</v>
       </c>
       <c r="B63" t="s">
-        <v>231</v>
+        <v>105</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" t="s">
-        <v>165</v>
+        <v>39</v>
       </c>
       <c r="B64" t="s">
-        <v>167</v>
+        <v>41</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" t="s">
-        <v>166</v>
+        <v>40</v>
       </c>
       <c r="B65" t="s">
-        <v>168</v>
+        <v>42</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" t="s">
-        <v>195</v>
+        <v>69</v>
       </c>
       <c r="B66" t="s">
-        <v>197</v>
+        <v>71</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" t="s">
-        <v>196</v>
+        <v>70</v>
       </c>
       <c r="B67" t="s">
-        <v>198</v>
+        <v>72</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" t="s">
-        <v>156</v>
+        <v>30</v>
       </c>
       <c r="B68" t="s">
-        <v>151</v>
+        <v>180</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" t="s">
-        <v>157</v>
+        <v>31</v>
       </c>
       <c r="B69" t="s">
-        <v>152</v>
+        <v>181</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" t="s">
-        <v>183</v>
+        <v>57</v>
       </c>
       <c r="B70" t="s">
-        <v>185</v>
+        <v>59</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" t="s">
-        <v>184</v>
+        <v>58</v>
       </c>
       <c r="B71" t="s">
-        <v>186</v>
+        <v>60</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" t="s">
-        <v>187</v>
+        <v>61</v>
       </c>
       <c r="B72" t="s">
-        <v>189</v>
+        <v>63</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" t="s">
-        <v>188</v>
+        <v>62</v>
       </c>
       <c r="B73" t="s">
-        <v>190</v>
+        <v>64</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" t="s">
-        <v>206</v>
+        <v>80</v>
       </c>
       <c r="B74" t="s">
-        <v>204</v>
+        <v>78</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" t="s">
-        <v>207</v>
+        <v>81</v>
       </c>
       <c r="B75" t="s">
-        <v>208</v>
+        <v>82</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" t="s">
-        <v>225</v>
+        <v>99</v>
       </c>
       <c r="B76" t="s">
-        <v>223</v>
+        <v>97</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" t="s">
-        <v>226</v>
+        <v>100</v>
       </c>
       <c r="B77" t="s">
-        <v>227</v>
+        <v>101</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" t="s">
-        <v>69</v>
+        <v>254</v>
       </c>
       <c r="B78" t="s">
-        <v>71</v>
+        <v>256</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" t="s">
-        <v>70</v>
+        <v>255</v>
       </c>
       <c r="B79" t="s">
-        <v>72</v>
+        <v>257</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" t="s">
-        <v>89</v>
+        <v>118</v>
       </c>
       <c r="B80" t="s">
-        <v>91</v>
+        <v>120</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" t="s">
-        <v>90</v>
+        <v>119</v>
       </c>
       <c r="B81" t="s">
-        <v>92</v>
+        <v>121</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" t="s">
-        <v>97</v>
+        <v>126</v>
       </c>
       <c r="B82" t="s">
-        <v>99</v>
+        <v>128</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" t="s">
-        <v>98</v>
+        <v>127</v>
       </c>
       <c r="B83" t="s">
-        <v>101</v>
+        <v>130</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" t="s">
-        <v>153</v>
+        <v>182</v>
       </c>
       <c r="B84" t="s">
-        <v>155</v>
+        <v>184</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" t="s">
-        <v>154</v>
+        <v>183</v>
       </c>
       <c r="B85" t="s">
-        <v>235</v>
+        <v>3</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" t="s">
-        <v>232</v>
+        <v>0</v>
       </c>
       <c r="B86" t="s">
-        <v>230</v>
+        <v>104</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" t="s">
-        <v>233</v>
+        <v>1</v>
       </c>
       <c r="B87" t="s">
-        <v>234</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" t="s">
-        <v>247</v>
+        <v>15</v>
       </c>
       <c r="B88" t="s">
-        <v>243</v>
+        <v>11</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" t="s">
-        <v>248</v>
+        <v>16</v>
       </c>
       <c r="B89" t="s">
-        <v>249</v>
+        <v>17</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" t="s">
-        <v>42</v>
+        <v>227</v>
       </c>
       <c r="B90" t="s">
-        <v>181</v>
+        <v>55</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" t="s">
-        <v>43</v>
+        <v>228</v>
       </c>
       <c r="B91" t="s">
-        <v>182</v>
+        <v>56</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" t="s">
-        <v>73</v>
+        <v>258</v>
       </c>
       <c r="B92" t="s">
-        <v>75</v>
+        <v>260</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" t="s">
-        <v>74</v>
+        <v>259</v>
       </c>
       <c r="B93" t="s">
-        <v>76</v>
+        <v>261</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" t="s">
-        <v>250</v>
+        <v>18</v>
       </c>
       <c r="B94" t="s">
-        <v>252</v>
+        <v>20</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95" t="s">
-        <v>251</v>
+        <v>19</v>
       </c>
       <c r="B95" t="s">
-        <v>253</v>
+        <v>21</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96" t="s">
-        <v>158</v>
+        <v>32</v>
       </c>
       <c r="B96" t="s">
-        <v>160</v>
+        <v>34</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" t="s">
-        <v>159</v>
+        <v>33</v>
       </c>
       <c r="B97" t="s">
-        <v>216</v>
+        <v>90</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98" t="s">
-        <v>213</v>
+        <v>87</v>
       </c>
       <c r="B98" t="s">
-        <v>215</v>
+        <v>89</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="A99" t="s">
-        <v>214</v>
+        <v>88</v>
       </c>
       <c r="B99" t="s">
-        <v>216</v>
+        <v>90</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100" t="s">
-        <v>77</v>
+        <v>106</v>
       </c>
       <c r="B100" t="s">
-        <v>79</v>
+        <v>108</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101" t="s">
-        <v>78</v>
+        <v>107</v>
       </c>
       <c r="B101" t="s">
-        <v>80</v>
+        <v>109</v>
       </c>
     </row>
     <row r="102" spans="1:2">
       <c r="A102" t="s">
-        <v>81</v>
+        <v>110</v>
       </c>
       <c r="B102" t="s">
-        <v>83</v>
+        <v>112</v>
       </c>
     </row>
     <row r="103" spans="1:2">
       <c r="A103" t="s">
-        <v>82</v>
+        <v>111</v>
       </c>
       <c r="B103" t="s">
-        <v>84</v>
+        <v>113</v>
       </c>
     </row>
     <row r="104" spans="1:2">
       <c r="A104" t="s">
-        <v>191</v>
+        <v>65</v>
       </c>
       <c r="B104" t="s">
-        <v>193</v>
+        <v>67</v>
       </c>
     </row>
     <row r="105" spans="1:2">
       <c r="A105" t="s">
-        <v>192</v>
+        <v>66</v>
       </c>
       <c r="B105" t="s">
-        <v>194</v>
+        <v>68</v>
       </c>
     </row>
     <row r="106" spans="1:2">
       <c r="A106" t="s">
-        <v>202</v>
+        <v>76</v>
       </c>
       <c r="B106" t="s">
-        <v>204</v>
+        <v>78</v>
       </c>
     </row>
     <row r="107" spans="1:2">
       <c r="A107" t="s">
-        <v>203</v>
+        <v>77</v>
       </c>
       <c r="B107" t="s">
-        <v>205</v>
+        <v>79</v>
       </c>
     </row>
     <row r="108" spans="1:2">
       <c r="A108" t="s">
-        <v>221</v>
+        <v>95</v>
       </c>
       <c r="B108" t="s">
-        <v>223</v>
+        <v>97</v>
       </c>
     </row>
     <row r="109" spans="1:2">
       <c r="A109" t="s">
-        <v>222</v>
+        <v>96</v>
       </c>
       <c r="B109" t="s">
-        <v>224</v>
+        <v>98</v>
       </c>
     </row>
     <row r="110" spans="1:2">
       <c r="A110" t="s">
-        <v>105</v>
+        <v>134</v>
       </c>
       <c r="B110" t="s">
-        <v>106</v>
+        <v>135</v>
       </c>
     </row>
     <row r="111" spans="1:2">
       <c r="A111" t="s">
-        <v>107</v>
+        <v>136</v>
       </c>
       <c r="B111" t="s">
-        <v>106</v>
+        <v>135</v>
       </c>
     </row>
     <row r="112" spans="1:2">
       <c r="A112" t="s">
-        <v>111</v>
+        <v>140</v>
       </c>
       <c r="B112" t="s">
-        <v>112</v>
+        <v>141</v>
       </c>
     </row>
     <row r="113" spans="1:2">
       <c r="A113" t="s">
-        <v>108</v>
+        <v>137</v>
       </c>
       <c r="B113" t="s">
-        <v>112</v>
+        <v>141</v>
       </c>
     </row>
     <row r="114" spans="1:2">
       <c r="A114" t="s">
-        <v>109</v>
+        <v>138</v>
       </c>
       <c r="B114" t="s">
-        <v>113</v>
+        <v>142</v>
       </c>
     </row>
     <row r="115" spans="1:2">
       <c r="A115" t="s">
-        <v>110</v>
+        <v>139</v>
       </c>
       <c r="B115" t="s">
-        <v>113</v>
+        <v>142</v>
       </c>
     </row>
     <row r="116" spans="1:2">
       <c r="A116" t="s">
-        <v>114</v>
+        <v>143</v>
       </c>
       <c r="B116" t="s">
-        <v>115</v>
+        <v>144</v>
       </c>
     </row>
     <row r="117" spans="1:2">
       <c r="A117" t="s">
-        <v>116</v>
+        <v>145</v>
       </c>
       <c r="B117" t="s">
-        <v>115</v>
+        <v>144</v>
       </c>
     </row>
     <row r="118" spans="1:2">
       <c r="A118" t="s">
-        <v>117</v>
+        <v>146</v>
       </c>
       <c r="B118" t="s">
-        <v>118</v>
+        <v>147</v>
       </c>
     </row>
     <row r="119" spans="1:2">
       <c r="A119" t="s">
-        <v>119</v>
+        <v>148</v>
       </c>
       <c r="B119" t="s">
-        <v>118</v>
+        <v>147</v>
       </c>
     </row>
     <row r="120" spans="1:2">
       <c r="A120" t="s">
-        <v>120</v>
+        <v>149</v>
       </c>
       <c r="B120" t="s">
-        <v>121</v>
+        <v>150</v>
       </c>
     </row>
     <row r="121" spans="1:2">
       <c r="A121" t="s">
-        <v>122</v>
+        <v>151</v>
       </c>
       <c r="B121" t="s">
-        <v>121</v>
+        <v>150</v>
       </c>
     </row>
     <row r="122" spans="1:2">
       <c r="A122" t="s">
-        <v>123</v>
+        <v>152</v>
       </c>
       <c r="B122" t="s">
-        <v>124</v>
+        <v>153</v>
       </c>
     </row>
     <row r="123" spans="1:2">
       <c r="A123" t="s">
-        <v>125</v>
+        <v>154</v>
       </c>
       <c r="B123" t="s">
-        <v>124</v>
+        <v>153</v>
       </c>
     </row>
     <row r="124" spans="1:2">
       <c r="A124" t="s">
-        <v>126</v>
+        <v>155</v>
       </c>
       <c r="B124" t="s">
-        <v>127</v>
+        <v>156</v>
       </c>
     </row>
     <row r="125" spans="1:2">
       <c r="A125" t="s">
-        <v>128</v>
+        <v>157</v>
       </c>
       <c r="B125" t="s">
-        <v>127</v>
+        <v>156</v>
       </c>
     </row>
     <row r="126" spans="1:2">
       <c r="A126" t="s">
-        <v>130</v>
+        <v>159</v>
       </c>
       <c r="B126" t="s">
-        <v>131</v>
+        <v>160</v>
       </c>
     </row>
     <row r="127" spans="1:2">
       <c r="A127" t="s">
-        <v>129</v>
+        <v>158</v>
       </c>
       <c r="B127" t="s">
-        <v>131</v>
+        <v>160</v>
       </c>
     </row>
     <row r="128" spans="1:2">
       <c r="A128" t="s">
-        <v>132</v>
+        <v>161</v>
       </c>
       <c r="B128" t="s">
-        <v>133</v>
+        <v>162</v>
       </c>
     </row>
     <row r="129" spans="1:2">
       <c r="A129" t="s">
-        <v>134</v>
+        <v>163</v>
       </c>
       <c r="B129" t="s">
-        <v>133</v>
+        <v>162</v>
       </c>
     </row>
     <row r="130" spans="1:2">
       <c r="A130" t="s">
-        <v>135</v>
+        <v>164</v>
       </c>
       <c r="B130" t="s">
-        <v>136</v>
+        <v>165</v>
       </c>
     </row>
     <row r="131" spans="1:2">
       <c r="A131" t="s">
-        <v>137</v>
+        <v>166</v>
       </c>
       <c r="B131" t="s">
-        <v>136</v>
+        <v>165</v>
       </c>
     </row>
     <row r="132" spans="1:2">
       <c r="A132" t="s">
-        <v>138</v>
+        <v>167</v>
       </c>
       <c r="B132" t="s">
-        <v>139</v>
+        <v>168</v>
       </c>
     </row>
     <row r="133" spans="1:2">
       <c r="A133" t="s">
-        <v>140</v>
+        <v>169</v>
       </c>
       <c r="B133" t="s">
-        <v>139</v>
+        <v>168</v>
       </c>
     </row>
     <row r="134" spans="1:2">
       <c r="A134" t="s">
-        <v>141</v>
+        <v>170</v>
       </c>
       <c r="B134" t="s">
-        <v>142</v>
+        <v>171</v>
       </c>
     </row>
     <row r="135" spans="1:2">
       <c r="A135" t="s">
-        <v>143</v>
+        <v>172</v>
       </c>
       <c r="B135" t="s">
-        <v>142</v>
+        <v>171</v>
       </c>
     </row>
     <row r="136" spans="1:2">
       <c r="A136" t="s">
-        <v>144</v>
+        <v>173</v>
       </c>
       <c r="B136" t="s">
-        <v>145</v>
+        <v>174</v>
       </c>
     </row>
     <row r="137" spans="1:2">
       <c r="A137" t="s">
-        <v>146</v>
+        <v>175</v>
       </c>
       <c r="B137" t="s">
-        <v>147</v>
+        <v>176</v>
       </c>
     </row>
     <row r="138" spans="1:2">
       <c r="A138" t="s">
-        <v>148</v>
+        <v>177</v>
       </c>
       <c r="B138" t="s">
-        <v>150</v>
+        <v>179</v>
       </c>
     </row>
     <row r="139" spans="1:2">
       <c r="A139" t="s">
-        <v>149</v>
+        <v>178</v>
       </c>
       <c r="B139" t="s">
-        <v>150</v>
+        <v>179</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2">
+      <c r="A140" t="s">
+        <v>26</v>
+      </c>
+      <c r="B140" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2">
+      <c r="A141" t="s">
+        <v>27</v>
+      </c>
+      <c r="B141" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/localization_cn.xlsx
+++ b/localization_cn.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="720" yWindow="300" windowWidth="17955" windowHeight="7290"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="302">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1031,14 +1031,190 @@
   </si>
   <si>
     <t>被治疗的对象会进入甜蜜状态，每回合恢复血量。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TXT_SELECT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选取</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TXT_CANCEL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>取消</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TXT_CHOOSE_FATHER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择父亲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择母亲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TXT_CHOOSE_MOTHER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TXT_COMBINE_TITLE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>灵魂融合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TXT_FATHER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>父</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TXT_MOTHER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>母</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TXT_COMBINE_NUM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要至少2个灵魂进行融合。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TXT_STARUP_LEVELLIMIT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>两个相同的灵魂才能升阶。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TXT_STARUP_TITLE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>灵魂升阶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TXT_STARUP_BASE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择基础</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TXT_STARUP_SEED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择食物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TXT_OK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>确  定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TXT_STARUP_SUCCESS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>升阶成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TXT_BLUEPRINT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓝图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>制造装备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TXT_MAKE_START</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始制造</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TXT_MAKE_CHOOSE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择蓝图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TXT_MAKE_TITLE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TXT_MAKE_SUCCESS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>制造成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TXT_MAKE_CONTINUE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>继续制造</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TXT_MAKE_ENHENCE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>强化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TXT_MAKE_PUTON</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>穿上</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1087,11 +1263,16 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1165,6 +1346,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1199,6 +1381,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1374,20 +1557,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B139"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B161"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="C45" sqref="C45"/>
+    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
+      <selection activeCell="B153" sqref="B153"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="21.125" customWidth="1"/>
+    <col min="1" max="1" width="32.25" customWidth="1"/>
     <col min="2" max="2" width="39.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1395,7 +1578,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>37</v>
       </c>
@@ -1403,7 +1586,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>38</v>
       </c>
@@ -1411,7 +1594,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>55</v>
       </c>
@@ -1419,7 +1602,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>56</v>
       </c>
@@ -1427,7 +1610,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>64</v>
       </c>
@@ -1435,7 +1618,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>65</v>
       </c>
@@ -1443,7 +1626,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>53</v>
       </c>
@@ -1451,7 +1634,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>54</v>
       </c>
@@ -1459,7 +1642,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>67</v>
       </c>
@@ -1467,7 +1650,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>68</v>
       </c>
@@ -1475,7 +1658,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>85</v>
       </c>
@@ -1483,7 +1666,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>86</v>
       </c>
@@ -1491,7 +1674,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>87</v>
       </c>
@@ -1499,7 +1682,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>88</v>
       </c>
@@ -1507,7 +1690,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>51</v>
       </c>
@@ -1515,7 +1698,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>52</v>
       </c>
@@ -1523,7 +1706,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>59</v>
       </c>
@@ -1531,7 +1714,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>60</v>
       </c>
@@ -1539,7 +1722,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>40</v>
       </c>
@@ -1547,7 +1730,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>41</v>
       </c>
@@ -1555,7 +1738,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>61</v>
       </c>
@@ -1563,7 +1746,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
         <v>62</v>
       </c>
@@ -1571,7 +1754,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>93</v>
       </c>
@@ -1579,7 +1762,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
         <v>94</v>
       </c>
@@ -1587,7 +1770,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
         <v>95</v>
       </c>
@@ -1595,7 +1778,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
         <v>96</v>
       </c>
@@ -1603,7 +1786,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
         <v>103</v>
       </c>
@@ -1611,7 +1794,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
         <v>104</v>
       </c>
@@ -1619,7 +1802,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
         <v>245</v>
       </c>
@@ -1627,7 +1810,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
         <v>246</v>
       </c>
@@ -1635,7 +1818,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
         <v>254</v>
       </c>
@@ -1643,7 +1826,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
         <v>255</v>
       </c>
@@ -1651,7 +1834,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
         <v>3</v>
       </c>
@@ -1659,7 +1842,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
         <v>4</v>
       </c>
@@ -1667,7 +1850,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
         <v>5</v>
       </c>
@@ -1675,7 +1858,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
         <v>10</v>
       </c>
@@ -1683,7 +1866,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
         <v>11</v>
       </c>
@@ -1691,7 +1874,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
         <v>12</v>
       </c>
@@ -1699,7 +1882,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
         <v>13</v>
       </c>
@@ -1707,7 +1890,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
         <v>14</v>
       </c>
@@ -1715,7 +1898,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
         <v>15</v>
       </c>
@@ -1723,7 +1906,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
         <v>16</v>
       </c>
@@ -1731,7 +1914,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
         <v>44</v>
       </c>
@@ -1739,7 +1922,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
         <v>45</v>
       </c>
@@ -1747,7 +1930,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
         <v>47</v>
       </c>
@@ -1755,7 +1938,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
         <v>49</v>
       </c>
@@ -1763,7 +1946,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
         <v>173</v>
       </c>
@@ -1771,7 +1954,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
         <v>174</v>
       </c>
@@ -1779,7 +1962,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A50" t="s">
         <v>161</v>
       </c>
@@ -1787,7 +1970,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="51" spans="1:2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
         <v>162</v>
       </c>
@@ -1795,7 +1978,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="52" spans="1:2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A52" t="s">
         <v>169</v>
       </c>
@@ -1803,7 +1986,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="53" spans="1:2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A53" t="s">
         <v>170</v>
       </c>
@@ -1811,7 +1994,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A54" t="s">
         <v>177</v>
       </c>
@@ -1819,7 +2002,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="55" spans="1:2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A55" t="s">
         <v>178</v>
       </c>
@@ -1827,7 +2010,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="56" spans="1:2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A56" t="s">
         <v>199</v>
       </c>
@@ -1835,7 +2018,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="57" spans="1:2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A57" t="s">
         <v>200</v>
       </c>
@@ -1843,7 +2026,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="58" spans="1:2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A58" t="s">
         <v>209</v>
       </c>
@@ -1851,7 +2034,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="59" spans="1:2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A59" t="s">
         <v>210</v>
       </c>
@@ -1859,7 +2042,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="60" spans="1:2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A60" t="s">
         <v>217</v>
       </c>
@@ -1867,7 +2050,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="61" spans="1:2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A61" t="s">
         <v>218</v>
       </c>
@@ -1875,7 +2058,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="62" spans="1:2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A62" t="s">
         <v>228</v>
       </c>
@@ -1883,7 +2066,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="63" spans="1:2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A63" t="s">
         <v>229</v>
       </c>
@@ -1891,7 +2074,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="64" spans="1:2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A64" t="s">
         <v>165</v>
       </c>
@@ -1899,7 +2082,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="65" spans="1:2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A65" t="s">
         <v>166</v>
       </c>
@@ -1907,7 +2090,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="66" spans="1:2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A66" t="s">
         <v>195</v>
       </c>
@@ -1915,7 +2098,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="67" spans="1:2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A67" t="s">
         <v>196</v>
       </c>
@@ -1923,7 +2106,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="68" spans="1:2">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A68" t="s">
         <v>156</v>
       </c>
@@ -1931,7 +2114,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="69" spans="1:2">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A69" t="s">
         <v>157</v>
       </c>
@@ -1939,7 +2122,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="70" spans="1:2">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A70" t="s">
         <v>183</v>
       </c>
@@ -1947,7 +2130,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="71" spans="1:2">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A71" t="s">
         <v>184</v>
       </c>
@@ -1955,7 +2138,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="72" spans="1:2">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A72" t="s">
         <v>187</v>
       </c>
@@ -1963,7 +2146,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="73" spans="1:2">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A73" t="s">
         <v>188</v>
       </c>
@@ -1971,7 +2154,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="74" spans="1:2">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A74" t="s">
         <v>206</v>
       </c>
@@ -1979,7 +2162,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="75" spans="1:2">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A75" t="s">
         <v>207</v>
       </c>
@@ -1987,7 +2170,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="76" spans="1:2">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A76" t="s">
         <v>225</v>
       </c>
@@ -1995,7 +2178,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="77" spans="1:2">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A77" t="s">
         <v>226</v>
       </c>
@@ -2003,7 +2186,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="78" spans="1:2">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A78" t="s">
         <v>69</v>
       </c>
@@ -2011,7 +2194,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="79" spans="1:2">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A79" t="s">
         <v>70</v>
       </c>
@@ -2019,7 +2202,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="80" spans="1:2">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A80" t="s">
         <v>89</v>
       </c>
@@ -2027,7 +2210,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="81" spans="1:2">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A81" t="s">
         <v>90</v>
       </c>
@@ -2035,7 +2218,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="82" spans="1:2">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A82" t="s">
         <v>97</v>
       </c>
@@ -2043,7 +2226,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="83" spans="1:2">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A83" t="s">
         <v>98</v>
       </c>
@@ -2051,7 +2234,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="84" spans="1:2">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A84" t="s">
         <v>153</v>
       </c>
@@ -2059,7 +2242,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="85" spans="1:2">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A85" t="s">
         <v>154</v>
       </c>
@@ -2067,7 +2250,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="86" spans="1:2">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A86" t="s">
         <v>232</v>
       </c>
@@ -2075,7 +2258,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="87" spans="1:2">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A87" t="s">
         <v>233</v>
       </c>
@@ -2083,7 +2266,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="88" spans="1:2">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A88" t="s">
         <v>247</v>
       </c>
@@ -2091,7 +2274,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="89" spans="1:2">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A89" t="s">
         <v>248</v>
       </c>
@@ -2099,7 +2282,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="90" spans="1:2">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A90" t="s">
         <v>42</v>
       </c>
@@ -2107,7 +2290,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="91" spans="1:2">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A91" t="s">
         <v>43</v>
       </c>
@@ -2115,7 +2298,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="92" spans="1:2">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A92" t="s">
         <v>73</v>
       </c>
@@ -2123,7 +2306,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="93" spans="1:2">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A93" t="s">
         <v>74</v>
       </c>
@@ -2131,7 +2314,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="94" spans="1:2">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A94" t="s">
         <v>250</v>
       </c>
@@ -2139,7 +2322,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="95" spans="1:2">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A95" t="s">
         <v>251</v>
       </c>
@@ -2147,7 +2330,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="96" spans="1:2">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A96" t="s">
         <v>158</v>
       </c>
@@ -2155,7 +2338,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="97" spans="1:2">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A97" t="s">
         <v>159</v>
       </c>
@@ -2163,7 +2346,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="98" spans="1:2">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A98" t="s">
         <v>213</v>
       </c>
@@ -2171,7 +2354,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="99" spans="1:2">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A99" t="s">
         <v>214</v>
       </c>
@@ -2179,7 +2362,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="100" spans="1:2">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A100" t="s">
         <v>77</v>
       </c>
@@ -2187,7 +2370,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="101" spans="1:2">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A101" t="s">
         <v>78</v>
       </c>
@@ -2195,7 +2378,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="102" spans="1:2">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A102" t="s">
         <v>81</v>
       </c>
@@ -2203,7 +2386,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="103" spans="1:2">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A103" t="s">
         <v>82</v>
       </c>
@@ -2211,7 +2394,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="104" spans="1:2">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A104" t="s">
         <v>191</v>
       </c>
@@ -2219,7 +2402,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="105" spans="1:2">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A105" t="s">
         <v>192</v>
       </c>
@@ -2227,7 +2410,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="106" spans="1:2">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A106" t="s">
         <v>202</v>
       </c>
@@ -2235,7 +2418,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="107" spans="1:2">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A107" t="s">
         <v>203</v>
       </c>
@@ -2243,7 +2426,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="108" spans="1:2">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A108" t="s">
         <v>221</v>
       </c>
@@ -2251,7 +2434,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="109" spans="1:2">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A109" t="s">
         <v>222</v>
       </c>
@@ -2259,7 +2442,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="110" spans="1:2">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A110" t="s">
         <v>105</v>
       </c>
@@ -2267,7 +2450,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="111" spans="1:2">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A111" t="s">
         <v>107</v>
       </c>
@@ -2275,7 +2458,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="112" spans="1:2">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A112" t="s">
         <v>111</v>
       </c>
@@ -2283,7 +2466,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="113" spans="1:2">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A113" t="s">
         <v>108</v>
       </c>
@@ -2291,7 +2474,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="114" spans="1:2">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A114" t="s">
         <v>109</v>
       </c>
@@ -2299,7 +2482,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="115" spans="1:2">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A115" t="s">
         <v>110</v>
       </c>
@@ -2307,7 +2490,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="116" spans="1:2">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A116" t="s">
         <v>114</v>
       </c>
@@ -2315,7 +2498,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="117" spans="1:2">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A117" t="s">
         <v>116</v>
       </c>
@@ -2323,7 +2506,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="118" spans="1:2">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A118" t="s">
         <v>117</v>
       </c>
@@ -2331,7 +2514,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="119" spans="1:2">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A119" t="s">
         <v>119</v>
       </c>
@@ -2339,7 +2522,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="120" spans="1:2">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A120" t="s">
         <v>120</v>
       </c>
@@ -2347,7 +2530,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="121" spans="1:2">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A121" t="s">
         <v>122</v>
       </c>
@@ -2355,7 +2538,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="122" spans="1:2">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A122" t="s">
         <v>123</v>
       </c>
@@ -2363,7 +2546,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="123" spans="1:2">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A123" t="s">
         <v>125</v>
       </c>
@@ -2371,7 +2554,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="124" spans="1:2">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A124" t="s">
         <v>126</v>
       </c>
@@ -2379,7 +2562,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="125" spans="1:2">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A125" t="s">
         <v>128</v>
       </c>
@@ -2387,7 +2570,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="126" spans="1:2">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A126" t="s">
         <v>130</v>
       </c>
@@ -2395,7 +2578,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="127" spans="1:2">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A127" t="s">
         <v>129</v>
       </c>
@@ -2403,7 +2586,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="128" spans="1:2">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A128" t="s">
         <v>132</v>
       </c>
@@ -2411,7 +2594,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="129" spans="1:2">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A129" t="s">
         <v>134</v>
       </c>
@@ -2419,7 +2602,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="130" spans="1:2">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A130" t="s">
         <v>135</v>
       </c>
@@ -2427,7 +2610,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="131" spans="1:2">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A131" t="s">
         <v>137</v>
       </c>
@@ -2435,7 +2618,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="132" spans="1:2">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A132" t="s">
         <v>138</v>
       </c>
@@ -2443,7 +2626,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="133" spans="1:2">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A133" t="s">
         <v>140</v>
       </c>
@@ -2451,7 +2634,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="134" spans="1:2">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A134" t="s">
         <v>141</v>
       </c>
@@ -2459,7 +2642,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="135" spans="1:2">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A135" t="s">
         <v>143</v>
       </c>
@@ -2467,7 +2650,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="136" spans="1:2">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A136" t="s">
         <v>144</v>
       </c>
@@ -2475,7 +2658,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="137" spans="1:2">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A137" t="s">
         <v>146</v>
       </c>
@@ -2483,7 +2666,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="138" spans="1:2">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A138" t="s">
         <v>148</v>
       </c>
@@ -2491,12 +2674,188 @@
         <v>150</v>
       </c>
     </row>
-    <row r="139" spans="1:2">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A139" t="s">
         <v>149</v>
       </c>
       <c r="B139" t="s">
         <v>150</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A140" t="s">
+        <v>258</v>
+      </c>
+      <c r="B140" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A141" t="s">
+        <v>260</v>
+      </c>
+      <c r="B141" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A142" t="s">
+        <v>262</v>
+      </c>
+      <c r="B142" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A143" t="s">
+        <v>265</v>
+      </c>
+      <c r="B143" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A144" t="s">
+        <v>266</v>
+      </c>
+      <c r="B144" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A145" t="s">
+        <v>268</v>
+      </c>
+      <c r="B145" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A146" t="s">
+        <v>270</v>
+      </c>
+      <c r="B146" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A147" t="s">
+        <v>272</v>
+      </c>
+      <c r="B147" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A148" t="s">
+        <v>274</v>
+      </c>
+      <c r="B148" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A149" t="s">
+        <v>276</v>
+      </c>
+      <c r="B149" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A150" t="s">
+        <v>278</v>
+      </c>
+      <c r="B150" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A151" t="s">
+        <v>280</v>
+      </c>
+      <c r="B151" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A152" t="s">
+        <v>282</v>
+      </c>
+      <c r="B152" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A153" t="s">
+        <v>284</v>
+      </c>
+      <c r="B153" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A154" t="s">
+        <v>286</v>
+      </c>
+      <c r="B154" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A155" t="s">
+        <v>293</v>
+      </c>
+      <c r="B155" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A156" t="s">
+        <v>289</v>
+      </c>
+      <c r="B156" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A157" t="s">
+        <v>291</v>
+      </c>
+      <c r="B157" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A158" t="s">
+        <v>294</v>
+      </c>
+      <c r="B158" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A159" t="s">
+        <v>296</v>
+      </c>
+      <c r="B159" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A160" t="s">
+        <v>298</v>
+      </c>
+      <c r="B160" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A161" t="s">
+        <v>300</v>
+      </c>
+      <c r="B161" t="s">
+        <v>301</v>
       </c>
     </row>
   </sheetData>
@@ -2507,12 +2866,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2520,12 +2879,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/localization_cn.xlsx
+++ b/localization_cn.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="304">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1207,6 +1207,14 @@
   </si>
   <si>
     <t>穿上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>COMBINE_NOT_ENOUGH_COPPER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要更多的[img:mainscene/MM_makalong.png]。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1253,9 +1261,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1558,10 +1569,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B161"/>
+  <dimension ref="A1:B162"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
-      <selection activeCell="B153" sqref="B153"/>
+    <sheetView tabSelected="1" topLeftCell="A148" workbookViewId="0">
+      <selection activeCell="B156" sqref="B156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2856,6 +2867,14 @@
       </c>
       <c r="B161" t="s">
         <v>301</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A162" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="B162" t="s">
+        <v>303</v>
       </c>
     </row>
   </sheetData>

--- a/localization_cn.xlsx
+++ b/localization_cn.xlsx
@@ -1560,8 +1560,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B161"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
-      <selection activeCell="B153" sqref="B153"/>
+    <sheetView tabSelected="1" topLeftCell="A154" workbookViewId="0">
+      <selection activeCell="B158" sqref="B158"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/localization_cn.xlsx
+++ b/localization_cn.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="318">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1215,6 +1215,62 @@
   </si>
   <si>
     <t>需要更多的[img:mainscene/MM_makalong.png]。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TXT_ENHENCE_START</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始强化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TXT_COST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>花费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TXT_ENHENCE_CONSUME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗装备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TXT_ENHENCE_TITLE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>装备强化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TXT_ENHENCE_OK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>确定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TXT_ENHENCE_TARGET</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择强化装备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TXT_ENHENCE_CHOOSE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择消耗装备</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1569,10 +1625,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B162"/>
+  <dimension ref="A1:B169"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A148" workbookViewId="0">
-      <selection activeCell="B156" sqref="B156"/>
+      <selection activeCell="B165" sqref="B165"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2875,6 +2931,62 @@
       </c>
       <c r="B162" t="s">
         <v>303</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A163" t="s">
+        <v>304</v>
+      </c>
+      <c r="B163" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A164" t="s">
+        <v>306</v>
+      </c>
+      <c r="B164" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A165" t="s">
+        <v>308</v>
+      </c>
+      <c r="B165" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A166" t="s">
+        <v>310</v>
+      </c>
+      <c r="B166" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A167" t="s">
+        <v>312</v>
+      </c>
+      <c r="B167" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A168" t="s">
+        <v>314</v>
+      </c>
+      <c r="B168" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A169" t="s">
+        <v>316</v>
+      </c>
+      <c r="B169" t="s">
+        <v>317</v>
       </c>
     </row>
   </sheetData>

--- a/localization_cn.xlsx
+++ b/localization_cn.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="320">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1271,6 +1271,14 @@
   </si>
   <si>
     <t>选择消耗装备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ENHENCE_SELECT_NOT_SELECT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要先选择要消耗的装备</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1625,10 +1633,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B169"/>
+  <dimension ref="A1:B170"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A148" workbookViewId="0">
-      <selection activeCell="B165" sqref="B165"/>
+      <selection activeCell="B163" sqref="B163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2987,6 +2995,14 @@
       </c>
       <c r="B169" t="s">
         <v>317</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A170" t="s">
+        <v>318</v>
+      </c>
+      <c r="B170" t="s">
+        <v>319</v>
       </c>
     </row>
   </sheetData>
